--- a/benchmarktests/testdefinitions/Benchmartktest_traject 30-4.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 30-4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EEBF49-C191-498C-A906-5A78F3A8A75C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA3915C-E9D4-42D5-A436-1836AC7C3EA4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="7665" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="10" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="4755" yWindow="4755" windowWidth="28800" windowHeight="15435" tabRatio="653" firstSheet="1" activeTab="1" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="107">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t>30-4</t>
+  </si>
+  <si>
+    <t>Trajectlengte</t>
   </si>
 </sst>
 </file>
@@ -2200,7 +2203,7 @@
   </sheetPr>
   <dimension ref="B1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2745,8 +2748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CBD9B7-2F4E-4E0F-B0DE-0C76068107FF}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2801,10 +2804,16 @@
         <v>3.3333333333333334E-8</v>
       </c>
       <c r="F4" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2.0680000000000001</v>
+      </c>
       <c r="D5" s="65" t="s">
         <v>31</v>
       </c>
@@ -2848,7 +2857,7 @@
         <v>34</v>
       </c>
       <c r="E8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="27">
         <f>E7</f>

--- a/benchmarktests/testdefinitions/Benchmartktest_traject 30-4.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 30-4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA3915C-E9D4-42D5-A436-1836AC7C3EA4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1B06C5-317A-4EE6-BC31-1F648AF744BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="4755" windowWidth="28800" windowHeight="15435" tabRatio="653" firstSheet="1" activeTab="1" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="5400" yWindow="4515" windowWidth="28800" windowHeight="15435" tabRatio="653" firstSheet="1" activeTab="3" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="108">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>Trajectlengte</t>
+  </si>
+  <si>
+    <t>Lengte-effect</t>
   </si>
 </sst>
 </file>
@@ -1976,11 +1979,11 @@
         <v>67</v>
       </c>
       <c r="C7" s="29" t="str">
-        <f>STPH!C4</f>
+        <f>STPH!C5</f>
         <v>GR</v>
       </c>
       <c r="D7" s="25">
-        <f>STPH!C5</f>
+        <f>STPH!C6</f>
         <v>2.1279180495437089E-7</v>
       </c>
       <c r="E7" s="49"/>
@@ -1998,11 +2001,11 @@
         <v>68</v>
       </c>
       <c r="C8" s="31" t="str">
-        <f>STBI!C4</f>
+        <f>STBI!C5</f>
         <v>GR</v>
       </c>
       <c r="D8" s="26">
-        <f>STBI!C5</f>
+        <f>STBI!C6</f>
         <v>4.5997963771249317E-8</v>
       </c>
       <c r="E8" s="49"/>
@@ -2020,11 +2023,11 @@
         <v>69</v>
       </c>
       <c r="C9" s="31" t="str">
-        <f>GEKB!C4</f>
+        <f>GEKB!C5</f>
         <v>GR</v>
       </c>
       <c r="D9" s="26">
-        <f>GEKB!C5</f>
+        <f>GEKB!C6</f>
         <v>1.2399999960166497E-7</v>
       </c>
       <c r="E9" s="49"/>
@@ -2042,11 +2045,11 @@
         <v>70</v>
       </c>
       <c r="C10" s="31">
-        <f>DA!C4</f>
+        <f>DA!C5</f>
         <v>0</v>
       </c>
       <c r="D10" s="26">
-        <f>DA!C5</f>
+        <f>DA!C6</f>
         <v>0</v>
       </c>
       <c r="E10" s="49"/>
@@ -2064,11 +2067,11 @@
         <v>71</v>
       </c>
       <c r="C11" s="31" t="str">
-        <f>STKWp!C4</f>
+        <f>STKWp!C5</f>
         <v>GR</v>
       </c>
       <c r="D11" s="26">
-        <f>STKWp!C5</f>
+        <f>STKWp!C6</f>
         <v>7.1118888556043203E-9</v>
       </c>
       <c r="E11" s="49"/>
@@ -2086,11 +2089,11 @@
         <v>72</v>
       </c>
       <c r="C12" s="31" t="str">
-        <f>HTKW!C4</f>
+        <f>HTKW!C5</f>
         <v>GR</v>
       </c>
       <c r="D12" s="26">
-        <f>HTKW!C5</f>
+        <f>HTKW!C6</f>
         <v>1.0039999960298474E-6</v>
       </c>
       <c r="E12" s="49"/>
@@ -2257,31 +2260,31 @@
         <v>D</v>
       </c>
       <c r="E3" s="4" t="str">
-        <f t="array" ref="E3">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B3,C3),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E3">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B3,C3),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+I</v>
       </c>
       <c r="F3" s="4" t="str">
-        <f t="array" ref="F3">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B3,C3),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F3">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B3,C3),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="array" ref="G3">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B3,C3),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G3">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+I</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="array" ref="H3">INDEX(DA!$K$10:$K$29,IFERROR(MATCH(MIN(IF(DA!$D$10:$D$29&gt;AVERAGE(B3,C3),DA!$D$10:$D$29)),DA!$D$10:$D$29),1))</f>
+        <f t="array" ref="H3">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B3,C3),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f t="array" ref="I3">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B3,C3),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I3">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B3,C3),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>D</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f t="array" ref="J3">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B3,C3),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J3">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B3,C3),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>D</v>
       </c>
       <c r="K3" s="7" t="str">
-        <f t="array" ref="K3">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B3,C3),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K3">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B3,C3),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -2297,31 +2300,31 @@
         <v>+I</v>
       </c>
       <c r="E4" s="9" t="str">
-        <f t="array" ref="E4">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B4,C4),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E4">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B4,C4),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+I</v>
       </c>
       <c r="F4" s="9" t="str">
-        <f t="array" ref="F4">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B4,C4),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F4">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B4,C4),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G4" s="9" t="str">
-        <f t="array" ref="G4">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B4,C4),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G4">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+I</v>
       </c>
       <c r="H4" s="9" t="str">
-        <f t="array" ref="H4">INDEX(DA!$K$10:$K$29,IFERROR(MATCH(MIN(IF(DA!$D$10:$D$29&gt;AVERAGE(B4,C4),DA!$D$10:$D$29)),DA!$D$10:$D$29),1))</f>
+        <f t="array" ref="H4">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B4,C4),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I4" s="9" t="str">
-        <f t="array" ref="I4">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B4,C4),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I4">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B4,C4),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J4" s="9" t="str">
-        <f t="array" ref="J4">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B4,C4),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J4">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B4,C4),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K4" s="12" t="str">
-        <f t="array" ref="K4">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B4,C4),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K4">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B4,C4),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -2337,31 +2340,31 @@
         <v>D</v>
       </c>
       <c r="E5" s="9" t="str">
-        <f t="array" ref="E5">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B5,C5),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E5">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B5,C5),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+I</v>
       </c>
       <c r="F5" s="9" t="str">
-        <f t="array" ref="F5">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B5,C5),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F5">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B5,C5),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>D</v>
       </c>
       <c r="G5" s="9" t="str">
-        <f t="array" ref="G5">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B5,C5),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G5">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H5" s="9" t="str">
-        <f t="array" ref="H5">INDEX(DA!$K$10:$K$29,IFERROR(MATCH(MIN(IF(DA!$D$10:$D$29&gt;AVERAGE(B5,C5),DA!$D$10:$D$29)),DA!$D$10:$D$29),1))</f>
+        <f t="array" ref="H5">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B5,C5),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I5" s="9" t="str">
-        <f t="array" ref="I5">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B5,C5),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I5">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B5,C5),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J5" s="9" t="str">
-        <f t="array" ref="J5">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B5,C5),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J5">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B5,C5),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K5" s="12" t="str">
-        <f t="array" ref="K5">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B5,C5),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K5">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B5,C5),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -2377,31 +2380,31 @@
         <v>D</v>
       </c>
       <c r="E6" s="9" t="str">
-        <f t="array" ref="E6">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B6,C6),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E6">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B6,C6),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+I</v>
       </c>
       <c r="F6" s="9" t="str">
-        <f t="array" ref="F6">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B6,C6),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F6">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B6,C6),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>D</v>
       </c>
       <c r="G6" s="9" t="str">
-        <f t="array" ref="G6">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B6,C6),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G6">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H6" s="9" t="str">
-        <f t="array" ref="H6">INDEX(DA!$K$10:$K$29,IFERROR(MATCH(MIN(IF(DA!$D$10:$D$29&gt;AVERAGE(B6,C6),DA!$D$10:$D$29)),DA!$D$10:$D$29),1))</f>
+        <f t="array" ref="H6">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B6,C6),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I6" s="9" t="str">
-        <f t="array" ref="I6">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B6,C6),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I6">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B6,C6),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J6" s="9" t="str">
-        <f t="array" ref="J6">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B6,C6),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J6">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B6,C6),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K6" s="12" t="str">
-        <f t="array" ref="K6">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B6,C6),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K6">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B6,C6),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -2417,31 +2420,31 @@
         <v>D</v>
       </c>
       <c r="E7" s="9" t="str">
-        <f t="array" ref="E7">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B7,C7),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E7">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B7,C7),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>D</v>
       </c>
       <c r="F7" s="9" t="str">
-        <f t="array" ref="F7">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B7,C7),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F7">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B7,C7),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G7" s="9" t="str">
-        <f t="array" ref="G7">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B7,C7),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G7">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>D</v>
       </c>
       <c r="H7" s="9" t="str">
-        <f t="array" ref="H7">INDEX(DA!$K$10:$K$29,IFERROR(MATCH(MIN(IF(DA!$D$10:$D$29&gt;AVERAGE(B7,C7),DA!$D$10:$D$29)),DA!$D$10:$D$29),1))</f>
+        <f t="array" ref="H7">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B7,C7),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I7" s="9" t="str">
-        <f t="array" ref="I7">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B7,C7),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I7">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B7,C7),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J7" s="9" t="str">
-        <f t="array" ref="J7">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B7,C7),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J7">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B7,C7),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K7" s="12" t="str">
-        <f t="array" ref="K7">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B7,C7),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K7">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B7,C7),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>D</v>
       </c>
     </row>
@@ -2457,31 +2460,31 @@
         <v>D</v>
       </c>
       <c r="E8" s="9" t="str">
-        <f t="array" ref="E8">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B8,C8),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E8">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B8,C8),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>D</v>
       </c>
       <c r="F8" s="9" t="str">
-        <f t="array" ref="F8">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B8,C8),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F8">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B8,C8),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G8" s="9" t="str">
-        <f t="array" ref="G8">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B8,C8),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G8">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>D</v>
       </c>
       <c r="H8" s="9" t="str">
-        <f t="array" ref="H8">INDEX(DA!$K$10:$K$29,IFERROR(MATCH(MIN(IF(DA!$D$10:$D$29&gt;AVERAGE(B8,C8),DA!$D$10:$D$29)),DA!$D$10:$D$29),1))</f>
+        <f t="array" ref="H8">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B8,C8),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I8" s="9" t="str">
-        <f t="array" ref="I8">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B8,C8),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I8">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B8,C8),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J8" s="9" t="str">
-        <f t="array" ref="J8">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B8,C8),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J8">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B8,C8),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K8" s="12" t="str">
-        <f t="array" ref="K8">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B8,C8),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K8">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B8,C8),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -2497,31 +2500,31 @@
         <v>-I</v>
       </c>
       <c r="E9" s="9" t="str">
-        <f t="array" ref="E9">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B9,C9),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E9">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B9,C9),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F9" s="9" t="str">
-        <f t="array" ref="F9">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B9,C9),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F9">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B9,C9),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G9" s="9" t="str">
-        <f t="array" ref="G9">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B9,C9),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G9">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H9" s="9" t="str">
-        <f t="array" ref="H9">INDEX(DA!$K$10:$K$29,IFERROR(MATCH(MIN(IF(DA!$D$10:$D$29&gt;AVERAGE(B9,C9),DA!$D$10:$D$29)),DA!$D$10:$D$29),1))</f>
+        <f t="array" ref="H9">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B9,C9),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I9" s="9" t="str">
-        <f t="array" ref="I9">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B9,C9),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I9">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B9,C9),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J9" s="9" t="str">
-        <f t="array" ref="J9">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B9,C9),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J9">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B9,C9),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="K9" s="12" t="str">
-        <f t="array" ref="K9">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B9,C9),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K9">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B9,C9),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+0</v>
       </c>
     </row>
@@ -2537,31 +2540,31 @@
         <v>+III</v>
       </c>
       <c r="E10" s="9" t="str">
-        <f t="array" ref="E10">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B10,C10),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E10">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B10,C10),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F10" s="9" t="str">
-        <f t="array" ref="F10">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B10,C10),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F10">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B10,C10),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G10" s="9" t="str">
-        <f t="array" ref="G10">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B10,C10),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G10">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H10" s="9" t="str">
-        <f t="array" ref="H10">INDEX(DA!$K$10:$K$29,IFERROR(MATCH(MIN(IF(DA!$D$10:$D$29&gt;AVERAGE(B10,C10),DA!$D$10:$D$29)),DA!$D$10:$D$29),1))</f>
+        <f t="array" ref="H10">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B10,C10),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I10" s="9" t="str">
-        <f t="array" ref="I10">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B10,C10),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I10">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B10,C10),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J10" s="9" t="str">
-        <f t="array" ref="J10">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B10,C10),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J10">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B10,C10),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K10" s="12" t="str">
-        <f t="array" ref="K10">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B10,C10),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K10">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B10,C10),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -2577,31 +2580,31 @@
         <v>D</v>
       </c>
       <c r="E11" s="9" t="str">
-        <f t="array" ref="E11">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B11,C11),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E11">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B11,C11),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F11" s="9" t="str">
-        <f t="array" ref="F11">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B11,C11),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F11">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B11,C11),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G11" s="9" t="str">
-        <f t="array" ref="G11">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B11,C11),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G11">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H11" s="9" t="str">
-        <f t="array" ref="H11">INDEX(DA!$K$10:$K$29,IFERROR(MATCH(MIN(IF(DA!$D$10:$D$29&gt;AVERAGE(B11,C11),DA!$D$10:$D$29)),DA!$D$10:$D$29),1))</f>
+        <f t="array" ref="H11">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B11,C11),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I11" s="9" t="str">
-        <f t="array" ref="I11">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B11,C11),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I11">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B11,C11),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J11" s="9" t="str">
-        <f t="array" ref="J11">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B11,C11),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J11">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B11,C11),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K11" s="12" t="str">
-        <f t="array" ref="K11">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B11,C11),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K11">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B11,C11),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>D</v>
       </c>
     </row>
@@ -2748,7 +2751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CBD9B7-2F4E-4E0F-B0DE-0C76068107FF}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2989,10 +2992,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49710E67-B736-4749-B620-06835F5DE469}">
-  <dimension ref="B2:Y31"/>
+  <dimension ref="B2:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3033,238 +3036,170 @@
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="26" t="str">
-        <f>IFERROR(MIN(1-PRODUCT(Q10:Q29),MAX(S10:S29)),"GR")</f>
-        <v>GR</v>
+        <v>107</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="26" t="str">
+        <f>IFERROR(MIN(1-PRODUCT(Q11:Q30),MAX(S11:S30)),"GR")</f>
+        <v>GR</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="26">
-        <f>MIN(1-PRODUCT(R10:R29),MAX(T10:T29))</f>
+      <c r="C6" s="26">
+        <f>MIN(1-PRODUCT(R11:R30),MAX(T11:T30))</f>
         <v>2.1279180495437089E-7</v>
       </c>
     </row>
-    <row r="6" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+    <row r="7" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="17" t="str">
-        <f>IF(1-PRODUCT(R10:R29)&gt;MAX(T10:T29),"Ja","Nee")</f>
+      <c r="C7" s="17" t="str">
+        <f>IF(1-PRODUCT(R11:R30)&gt;MAX(T11:T30),"Ja","Nee")</f>
         <v>Nee</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q8" t="s">
+    <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    <row r="10" spans="2:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="O10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="36" t="s">
+      <c r="P10" s="2"/>
+      <c r="Q10" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="37" t="s">
+      <c r="R10" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S9" s="37" t="s">
+      <c r="S10" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="37" t="s">
+      <c r="T10" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="U9" s="38" t="s">
+      <c r="U10" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="V9" s="38" t="s">
+      <c r="V10" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="W9" s="4"/>
-      <c r="X9" s="39" t="s">
+      <c r="W10" s="4"/>
+      <c r="X10" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="Y9" s="35"/>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="Y10" s="35"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>0.5</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G11" s="5">
         <v>6.3875088715400993E-8</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H11" s="25">
         <v>1.0645848119233497E-7</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="29">
-        <f t="shared" ref="L10:L13" si="0">IF($E10="Nee",0,IF(I10="Ja",IF(ISNUMBER(J10),J10,"-"),IF(ISNUMBER(G10),G10,"-")))</f>
+      <c r="J11" s="5"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="29">
+        <f t="shared" ref="L11:L14" si="0">IF($E11="Nee",0,IF(I11="Ja",IF(ISNUMBER(J11),J11,"-"),IF(ISNUMBER(G11),G11,"-")))</f>
         <v>6.3875088715400993E-8</v>
       </c>
-      <c r="M10" s="5">
-        <f t="shared" ref="M10:M13" si="1">IF($E10="Nee",0,IF(I10="Ja",IF(ISNUMBER(K10),K10,"-"),IF(ISNUMBER(H10),H10,"-")))</f>
+      <c r="M11" s="5">
+        <f t="shared" ref="M11:M14" si="1">IF($E11="Nee",0,IF(I11="Ja",IF(ISNUMBER(K11),K11,"-"),IF(ISNUMBER(H11),H11,"-")))</f>
         <v>1.0645848119233497E-7</v>
       </c>
-      <c r="N10" s="6">
-        <f t="shared" ref="N10:N13" si="2">IF(ISNUMBER(L10),IF(M10=0,1,M10/L10),"-")</f>
+      <c r="N11" s="6">
+        <f t="shared" ref="N11:N14" si="2">IF(ISNUMBER(L11),IF(M11=0,1,M11/L11),"-")</f>
         <v>1.6666666666666665</v>
       </c>
-      <c r="O10" s="30" t="str">
-        <f t="shared" ref="O10:O13" si="3">IF(ISNUMBER($M10),W10,IF($X10,"D","ND"))</f>
+      <c r="O11" s="30" t="str">
+        <f t="shared" ref="O11:O14" si="3">IF(ISNUMBER($M11),W11,IF($X11,"D","ND"))</f>
         <v>+I</v>
       </c>
-      <c r="Q10" s="31">
-        <f t="shared" ref="Q10:Q13" si="4">IF(AND(F10="Geen faalkans",I10="Nee"),1,1-M10)</f>
+      <c r="Q11" s="31">
+        <f t="shared" ref="Q11:Q14" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
         <v>0.99999989354151886</v>
       </c>
-      <c r="R10" s="10">
-        <f>IF(M10="-",1,Q10)</f>
+      <c r="R11" s="10">
+        <f>IF(M11="-",1,Q11)</f>
         <v>0.99999989354151886</v>
       </c>
-      <c r="S10" s="10">
-        <f t="shared" ref="S10:S13" si="5">IF(AND(F10="Geen faalkans",I10="Nee"),0,L10*$C$3)</f>
+      <c r="S11" s="10">
+        <f t="shared" ref="S11:S14" si="5">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
         <v>1.8459900638750886E-6</v>
       </c>
-      <c r="T10" s="10">
-        <f>IF(L10="-",0,S10)</f>
+      <c r="T11" s="10">
+        <f>IF(L11="-",0,S11)</f>
         <v>1.8459900638750886E-6</v>
-      </c>
-      <c r="U10" s="9">
-        <f t="array" ref="U10">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M10,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.333333333333333E-7</v>
-      </c>
-      <c r="V10" s="9">
-        <f>IFERROR(MATCH($U10,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>3</v>
-      </c>
-      <c r="W10" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V10)</f>
-        <v>+I</v>
-      </c>
-      <c r="X10" s="12" t="b">
-        <f>IF($E10="Ja",IF($I10="Ja",NOT(ISNUMBER($J10)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="10">
-        <v>6.3800000000000002E-8</v>
-      </c>
-      <c r="H11" s="26">
-        <v>1.0633333333333333E-7</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="31">
-        <f t="shared" si="0"/>
-        <v>6.3800000000000002E-8</v>
-      </c>
-      <c r="M11" s="10">
-        <f t="shared" si="1"/>
-        <v>1.0633333333333333E-7</v>
-      </c>
-      <c r="N11" s="11">
-        <f t="shared" si="2"/>
-        <v>1.6666666666666665</v>
-      </c>
-      <c r="O11" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>+I</v>
-      </c>
-      <c r="Q11" s="31">
-        <f t="shared" si="4"/>
-        <v>0.99999989366666664</v>
-      </c>
-      <c r="R11" s="10">
-        <f t="shared" ref="R11:R13" si="6">IF(M11="-",1,Q11)</f>
-        <v>0.99999989366666664</v>
-      </c>
-      <c r="S11" s="10">
-        <f t="shared" si="5"/>
-        <v>1.8438199999999999E-6</v>
-      </c>
-      <c r="T11" s="10">
-        <f t="shared" ref="T11:T13" si="7">IF(L11="-",0,S11)</f>
-        <v>1.8438199999999999E-6</v>
       </c>
       <c r="U11" s="9">
         <f t="array" ref="U11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -3279,19 +3214,19 @@
         <v>+I</v>
       </c>
       <c r="X11" s="12" t="b">
-        <f t="shared" ref="X11:X13" si="8">IF($E11="Ja",IF($I11="Ja",NOT(ISNUMBER($J11)),FALSE),FALSE)</f>
+        <f>IF($E11="Ja",IF($I11="Ja",NOT(ISNUMBER($J11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D12" s="9">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>17</v>
@@ -3300,164 +3235,216 @@
         <v>21</v>
       </c>
       <c r="G12" s="10">
-        <v>2.9999999999999997E-5</v>
+        <v>6.3800000000000002E-8</v>
       </c>
       <c r="H12" s="26">
         <v>1.0633333333333333E-7</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="26"/>
-      <c r="L12" s="31" t="str">
+      <c r="L12" s="31">
+        <f t="shared" si="0"/>
+        <v>6.3800000000000002E-8</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0633333333333333E-7</v>
+      </c>
+      <c r="N12" s="11">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="O12" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>+I</v>
+      </c>
+      <c r="Q12" s="31">
+        <f t="shared" si="4"/>
+        <v>0.99999989366666664</v>
+      </c>
+      <c r="R12" s="10">
+        <f t="shared" ref="R12:R14" si="6">IF(M12="-",1,Q12)</f>
+        <v>0.99999989366666664</v>
+      </c>
+      <c r="S12" s="10">
+        <f t="shared" si="5"/>
+        <v>1.8438199999999999E-6</v>
+      </c>
+      <c r="T12" s="10">
+        <f t="shared" ref="T12:T14" si="7">IF(L12="-",0,S12)</f>
+        <v>1.8438199999999999E-6</v>
+      </c>
+      <c r="U12" s="9">
+        <f t="array" ref="U12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>3.333333333333333E-7</v>
+      </c>
+      <c r="V12" s="9">
+        <f>IFERROR(MATCH($U12,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <v>3</v>
+      </c>
+      <c r="W12" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V12)</f>
+        <v>+I</v>
+      </c>
+      <c r="X12" s="12" t="b">
+        <f t="shared" ref="X12:X14" si="8">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="10">
+        <v>2.9999999999999997E-5</v>
+      </c>
+      <c r="H13" s="26">
+        <v>1.0633333333333333E-7</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="31" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="M12" s="10" t="str">
+      <c r="M13" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N12" s="11" t="str">
+      <c r="N13" s="11" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="O12" s="32" t="str">
+      <c r="O13" s="32" t="str">
         <f t="shared" si="3"/>
         <v>D</v>
       </c>
-      <c r="Q12" s="31" t="e">
+      <c r="Q13" s="31" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R12" s="10">
+      <c r="R13" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="S12" s="10" t="e">
+      <c r="S13" s="10" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T12" s="10">
+      <c r="T13" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U12" s="9">
-        <f t="array" ref="U12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="V12" s="9">
-        <f>IFERROR(MATCH($U12,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W12" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V12)</f>
-        <v>+III</v>
-      </c>
-      <c r="X12" s="12" t="b">
+      <c r="U13" s="9">
+        <f t="array" ref="U13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="9">
+        <f>IFERROR(MATCH($U13,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <v>1</v>
+      </c>
+      <c r="W13" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V13)</f>
+        <v>+III</v>
+      </c>
+      <c r="X13" s="12" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C14" s="9">
         <v>1.5</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="9">
         <v>2.0680000000000001</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G14" s="10">
         <v>1.0000000000000001E-15</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H14" s="26">
         <v>1.7573333333333336E-15</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="31">
+      <c r="J14" s="10"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="31">
         <f t="shared" si="0"/>
         <v>1.0000000000000001E-15</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M14" s="10">
         <f t="shared" si="1"/>
         <v>1.7573333333333336E-15</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N14" s="11">
         <f t="shared" si="2"/>
         <v>1.7573333333333334</v>
       </c>
-      <c r="O13" s="32" t="str">
+      <c r="O14" s="32" t="str">
         <f t="shared" si="3"/>
         <v>+III</v>
       </c>
-      <c r="Q13" s="31">
+      <c r="Q14" s="31">
         <f t="shared" si="4"/>
         <v>0.99999999999999822</v>
       </c>
-      <c r="R13" s="10">
+      <c r="R14" s="10">
         <f t="shared" si="6"/>
         <v>0.99999999999999822</v>
       </c>
-      <c r="S13" s="10">
+      <c r="S14" s="10">
         <f t="shared" si="5"/>
         <v>2.8900000000000002E-14</v>
       </c>
-      <c r="T13" s="10">
+      <c r="T14" s="10">
         <f t="shared" si="7"/>
         <v>2.8900000000000002E-14</v>
       </c>
-      <c r="U13" s="9">
-        <f t="array" ref="U13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+      <c r="U14" s="9">
+        <f t="array" ref="U14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333334E-8</v>
       </c>
-      <c r="V13" s="9">
-        <f>IFERROR(MATCH($U13,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W13" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V13)</f>
-        <v>+III</v>
-      </c>
-      <c r="X13" s="12" t="b">
+      <c r="V14" s="9">
+        <f>IFERROR(MATCH($U14,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <v>1</v>
+      </c>
+      <c r="W14" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V14)</f>
+        <v>+III</v>
+      </c>
+      <c r="X14" s="12" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="32"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="12"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
@@ -3795,48 +3782,72 @@
       <c r="W28" s="9"/>
       <c r="X28" s="12"/>
     </row>
-    <row r="29" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="34"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="17"/>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q30" s="1"/>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="32"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="12"/>
+    </row>
+    <row r="30" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="34"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="17"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="Q31" s="1"/>
     </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Q32" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G10:H29">
+  <conditionalFormatting sqref="G11:H30">
     <cfRule type="expression" dxfId="81" priority="11">
-      <formula>IF($E10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10:K29">
+  <conditionalFormatting sqref="J11:K30">
     <cfRule type="expression" dxfId="80" priority="10">
-      <formula>IF($I10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($I11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10:O29">
+  <conditionalFormatting sqref="O11:O30">
     <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -3854,7 +3865,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="12" operator="endsWith" id="{F4C956AC-4E51-489A-B485-D8BDC4A2FBD8}">
-            <xm:f>RIGHT(O10,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(O11,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -3865,7 +3876,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="13" operator="endsWith" id="{EC1E636F-FA52-4882-8914-4A6967CF2391}">
-            <xm:f>RIGHT(O10,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(O11,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -3876,7 +3887,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="14" operator="endsWith" id="{FFF59E8A-EABB-417F-BB55-82036CECB9D8}">
-            <xm:f>RIGHT(O10,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(O11,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -3887,7 +3898,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="15" operator="endsWith" id="{B198F5CD-E767-4F17-B69C-63325B705E57}">
-            <xm:f>RIGHT(O10,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(O11,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -3898,7 +3909,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="16" operator="containsText" id="{3DC54A52-4129-476D-B4F0-C6819CA98DA8}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,O10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,O11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -3909,7 +3920,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="17" operator="containsText" id="{679DAC17-7B4C-4FB7-B8DA-924271D929B5}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,O10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,O11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -3919,7 +3930,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>O10:O29</xm:sqref>
+          <xm:sqref>O11:O30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3929,7 +3940,7 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E30:E45 F10:F29</xm:sqref>
+          <xm:sqref>E31:E46 F11:F30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3939,10 +3950,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFA30DD-EAF1-4973-B290-E12CB5036732}">
-  <dimension ref="B2:Y31"/>
+  <dimension ref="B2:Y32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3983,318 +3994,250 @@
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="26" t="str">
-        <f>IFERROR(MIN(1-PRODUCT(Q10:Q29),MAX(S10:S29)),"GR")</f>
-        <v>GR</v>
+        <v>107</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="26" t="str">
+        <f>IFERROR(MIN(1-PRODUCT(Q11:Q30),MAX(S11:S30)),"GR")</f>
+        <v>GR</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="26">
-        <f>MIN(1-PRODUCT(R10:R29),MAX(T10:T29))</f>
+      <c r="C6" s="26">
+        <f>MIN(1-PRODUCT(R11:R30),MAX(T11:T30))</f>
         <v>4.5997963771249317E-8</v>
       </c>
     </row>
-    <row r="6" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+    <row r="7" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="17" t="str">
-        <f>IF(1-PRODUCT(R10:R29)&gt;MAX(T10:T29),"Ja","Nee")</f>
+      <c r="C7" s="17" t="str">
+        <f>IF(1-PRODUCT(R11:R30)&gt;MAX(T11:T30),"Ja","Nee")</f>
         <v>Nee</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q8" t="s">
+    <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    <row r="10" spans="2:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="O10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="36" t="s">
+      <c r="P10" s="2"/>
+      <c r="Q10" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="37" t="s">
+      <c r="R10" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S9" s="37" t="s">
+      <c r="S10" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="37" t="s">
+      <c r="T10" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="U9" s="38" t="s">
+      <c r="U10" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="V9" s="38" t="s">
+      <c r="V10" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="W9" s="4"/>
-      <c r="X9" s="39" t="s">
+      <c r="W10" s="4"/>
+      <c r="X10" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="Y9" s="35"/>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="Y10" s="35"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>0.5</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G11" s="5">
         <v>1E-10</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H11" s="25">
         <v>1.3300000000000001E-10</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="29">
-        <f t="shared" ref="L10:L13" si="0">IF($E10="Nee",0,IF(I10="Ja",IF(ISNUMBER(J10),J10,"-"),IF(ISNUMBER(G10),G10,"-")))</f>
+      <c r="J11" s="5"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="29">
+        <f t="shared" ref="L11:L14" si="0">IF($E11="Nee",0,IF(I11="Ja",IF(ISNUMBER(J11),J11,"-"),IF(ISNUMBER(G11),G11,"-")))</f>
         <v>1E-10</v>
       </c>
-      <c r="M10" s="5">
-        <f t="shared" ref="M10:M13" si="1">IF($E10="Nee",0,IF(I10="Ja",IF(ISNUMBER(K10),K10,"-"),IF(ISNUMBER(H10),H10,"-")))</f>
+      <c r="M11" s="5">
+        <f t="shared" ref="M11:M14" si="1">IF($E11="Nee",0,IF(I11="Ja",IF(ISNUMBER(K11),K11,"-"),IF(ISNUMBER(H11),H11,"-")))</f>
         <v>1.3300000000000001E-10</v>
       </c>
-      <c r="N10" s="6">
-        <f t="shared" ref="N10:N13" si="2">IF(ISNUMBER(L10),IF(M10=0,1,M10/L10),"-")</f>
+      <c r="N11" s="6">
+        <f t="shared" ref="N11:N14" si="2">IF(ISNUMBER(L11),IF(M11=0,1,M11/L11),"-")</f>
         <v>1.33</v>
       </c>
-      <c r="O10" s="30" t="str">
-        <f t="shared" ref="O10:O13" si="3">IF(ISNUMBER($M10),W10,IF($X10,"D","ND"))</f>
-        <v>+III</v>
-      </c>
-      <c r="Q10" s="31">
-        <f t="shared" ref="Q10:Q13" si="4">IF(AND(F10="Geen faalkans",I10="Nee"),1,1-M10)</f>
+      <c r="O11" s="30" t="str">
+        <f t="shared" ref="O11:O14" si="3">IF(ISNUMBER($M11),W11,IF($X11,"D","ND"))</f>
+        <v>+III</v>
+      </c>
+      <c r="Q11" s="31">
+        <f t="shared" ref="Q11:Q14" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
         <v>0.99999999986699994</v>
       </c>
-      <c r="R10" s="10">
-        <f>IF(M10="-",1,Q10)</f>
+      <c r="R11" s="10">
+        <f>IF(M11="-",1,Q11)</f>
         <v>0.99999999986699994</v>
       </c>
-      <c r="S10" s="10">
-        <f t="shared" ref="S10:S13" si="5">IF(AND(F10="Geen faalkans",I10="Nee"),0,L10*$C$3)</f>
+      <c r="S11" s="10">
+        <f t="shared" ref="S11:S14" si="5">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
         <v>1.4800000000000001E-9</v>
       </c>
-      <c r="T10" s="10">
-        <f>IF(L10="-",0,S10)</f>
+      <c r="T11" s="10">
+        <f>IF(L11="-",0,S11)</f>
         <v>1.4800000000000001E-9</v>
       </c>
-      <c r="U10" s="9">
-        <f t="array" ref="U10">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M10,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+      <c r="U11" s="9">
+        <f t="array" ref="U11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333334E-8</v>
       </c>
-      <c r="V10" s="9">
-        <f>IFERROR(MATCH($U10,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W10" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V10)</f>
-        <v>+III</v>
-      </c>
-      <c r="X10" s="12" t="b">
-        <f>IF($E10="Ja",IF($I10="Ja",NOT(ISNUMBER($J10)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="V11" s="9">
+        <f>IFERROR(MATCH($U11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="W11" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V11)</f>
+        <v>+III</v>
+      </c>
+      <c r="X11" s="12" t="b">
+        <f>IF($E11="Ja",IF($I11="Ja",NOT(ISNUMBER($J11)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C12" s="9">
         <v>0.5</v>
       </c>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G12" s="10">
         <v>1E-4</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H12" s="26">
         <v>1.3300000000000001E-10</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="31" t="str">
+      <c r="J12" s="10"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="31" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="M11" s="10" t="str">
+      <c r="M12" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N11" s="11" t="str">
+      <c r="N12" s="11" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="O11" s="32" t="str">
+      <c r="O12" s="32" t="str">
         <f t="shared" si="3"/>
         <v>D</v>
       </c>
-      <c r="Q11" s="31" t="e">
+      <c r="Q12" s="31" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R11" s="10">
-        <f t="shared" ref="R11:R13" si="6">IF(M11="-",1,Q11)</f>
-        <v>1</v>
-      </c>
-      <c r="S11" s="10" t="e">
+      <c r="R12" s="10">
+        <f t="shared" ref="R12:R14" si="6">IF(M12="-",1,Q12)</f>
+        <v>1</v>
+      </c>
+      <c r="S12" s="10" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T11" s="10">
-        <f t="shared" ref="T11:T13" si="7">IF(L11="-",0,S11)</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="9">
-        <f t="array" ref="U11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="9">
-        <f>IFERROR(MATCH($U11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W11" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V11)</f>
-        <v>+III</v>
-      </c>
-      <c r="X11" s="12" t="b">
-        <f t="shared" ref="X11:X13" si="8">IF($E11="Ja",IF($I11="Ja",NOT(ISNUMBER($J11)),FALSE),FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1.7E-8</v>
-      </c>
-      <c r="H12" s="26">
-        <v>2.2610000000000002E-8</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="31">
-        <f t="shared" si="0"/>
-        <v>1.7E-8</v>
-      </c>
-      <c r="M12" s="10">
-        <f t="shared" si="1"/>
-        <v>2.2610000000000002E-8</v>
-      </c>
-      <c r="N12" s="11">
-        <f t="shared" si="2"/>
-        <v>1.33</v>
-      </c>
-      <c r="O12" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>+III</v>
-      </c>
-      <c r="Q12" s="31">
-        <f t="shared" si="4"/>
-        <v>0.99999997739000002</v>
-      </c>
-      <c r="R12" s="10">
-        <f t="shared" si="6"/>
-        <v>0.99999997739000002</v>
-      </c>
-      <c r="S12" s="10">
-        <f t="shared" si="5"/>
-        <v>2.516E-7</v>
-      </c>
       <c r="T12" s="10">
-        <f t="shared" si="7"/>
-        <v>2.516E-7</v>
+        <f t="shared" ref="T12:T14" si="7">IF(L12="-",0,S12)</f>
+        <v>0</v>
       </c>
       <c r="U12" s="9">
         <f t="array" ref="U12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>0</v>
       </c>
       <c r="V12" s="9">
         <f>IFERROR(MATCH($U12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -4305,19 +4248,19 @@
         <v>+III</v>
       </c>
       <c r="X12" s="12" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="X12:X14" si="8">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9">
         <v>1.5</v>
-      </c>
-      <c r="D13" s="9">
-        <v>2.0680000000000001</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>17</v>
@@ -4326,10 +4269,10 @@
         <v>21</v>
       </c>
       <c r="G13" s="10">
-        <v>1.6914177463549946E-8</v>
+        <v>1.7E-8</v>
       </c>
       <c r="H13" s="26">
-        <v>2.3254964311085553E-8</v>
+        <v>2.2610000000000002E-8</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>18</v>
@@ -4338,15 +4281,15 @@
       <c r="K13" s="26"/>
       <c r="L13" s="31">
         <f t="shared" si="0"/>
-        <v>1.6914177463549946E-8</v>
+        <v>1.7E-8</v>
       </c>
       <c r="M13" s="10">
         <f t="shared" si="1"/>
-        <v>2.3254964311085553E-8</v>
+        <v>2.2610000000000002E-8</v>
       </c>
       <c r="N13" s="11">
         <f t="shared" si="2"/>
-        <v>1.3748800000000001</v>
+        <v>1.33</v>
       </c>
       <c r="O13" s="32" t="str">
         <f t="shared" si="3"/>
@@ -4354,19 +4297,19 @@
       </c>
       <c r="Q13" s="31">
         <f t="shared" si="4"/>
-        <v>0.99999997674503571</v>
+        <v>0.99999997739000002</v>
       </c>
       <c r="R13" s="10">
         <f t="shared" si="6"/>
-        <v>0.99999997674503571</v>
+        <v>0.99999997739000002</v>
       </c>
       <c r="S13" s="10">
         <f t="shared" si="5"/>
-        <v>2.5032982646053922E-7</v>
+        <v>2.516E-7</v>
       </c>
       <c r="T13" s="10">
         <f t="shared" si="7"/>
-        <v>2.5032982646053922E-7</v>
+        <v>2.516E-7</v>
       </c>
       <c r="U13" s="9">
         <f t="array" ref="U13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -4386,28 +4329,80 @@
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1.6914177463549946E-8</v>
+      </c>
+      <c r="H14" s="26">
+        <v>2.3254964311085553E-8</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="J14" s="10"/>
       <c r="K14" s="26"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="32"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="12"/>
+      <c r="L14" s="31">
+        <f t="shared" si="0"/>
+        <v>1.6914177463549946E-8</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="shared" si="1"/>
+        <v>2.3254964311085553E-8</v>
+      </c>
+      <c r="N14" s="11">
+        <f t="shared" si="2"/>
+        <v>1.3748800000000001</v>
+      </c>
+      <c r="O14" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>+III</v>
+      </c>
+      <c r="Q14" s="31">
+        <f t="shared" si="4"/>
+        <v>0.99999997674503571</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" si="6"/>
+        <v>0.99999997674503571</v>
+      </c>
+      <c r="S14" s="10">
+        <f t="shared" si="5"/>
+        <v>2.5032982646053922E-7</v>
+      </c>
+      <c r="T14" s="10">
+        <f t="shared" si="7"/>
+        <v>2.5032982646053922E-7</v>
+      </c>
+      <c r="U14" s="9">
+        <f t="array" ref="U14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>3.3333333333333334E-8</v>
+      </c>
+      <c r="V14" s="9">
+        <f>IFERROR(MATCH($U14,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="W14" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V14)</f>
+        <v>+III</v>
+      </c>
+      <c r="X14" s="12" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
@@ -4745,48 +4740,72 @@
       <c r="W28" s="9"/>
       <c r="X28" s="12"/>
     </row>
-    <row r="29" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="34"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="17"/>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q30" s="1"/>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="32"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="12"/>
+    </row>
+    <row r="30" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="34"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="17"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="Q31" s="1"/>
     </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Q32" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G10:H29">
+  <conditionalFormatting sqref="G11:H30">
     <cfRule type="expression" dxfId="70" priority="11">
-      <formula>IF($E10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10:K29">
+  <conditionalFormatting sqref="J11:K30">
     <cfRule type="expression" dxfId="69" priority="10">
-      <formula>IF($I10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($I11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10:O29">
+  <conditionalFormatting sqref="O11:O30">
     <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -4804,7 +4823,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="18" operator="endsWith" id="{BE7CEC02-BF34-4418-BA82-1F9327982DD9}">
-            <xm:f>RIGHT(O10,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(O11,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -4815,7 +4834,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="19" operator="endsWith" id="{8B8AF12F-6D43-41F5-A825-07E4CD293723}">
-            <xm:f>RIGHT(O10,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(O11,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -4826,7 +4845,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="20" operator="endsWith" id="{C08839C3-1BBE-44B3-9E34-E7A0C5F8DF48}">
-            <xm:f>RIGHT(O10,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(O11,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -4837,7 +4856,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="21" operator="endsWith" id="{609609D6-F910-4ACA-AD7C-326B654C721E}">
-            <xm:f>RIGHT(O10,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(O11,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -4848,7 +4867,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="22" operator="containsText" id="{B5912E85-BF07-4182-88DE-E52A178CDED9}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,O10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,O11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -4859,7 +4878,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="23" operator="containsText" id="{A99BDEDF-CF44-4426-B3A0-7E5479615479}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,O10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,O11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -4869,7 +4888,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>O10:O29</xm:sqref>
+          <xm:sqref>O11:O30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4879,7 +4898,7 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E30:E45 F10:F29</xm:sqref>
+          <xm:sqref>E31:E46 F11:F30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4889,10 +4908,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4BDF32-8A22-4A66-B6B5-DB37648E7DC4}">
-  <dimension ref="B2:U72"/>
+  <dimension ref="B2:U73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4929,373 +4948,361 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="26" t="str">
-        <f>IFERROR(MIN(1-PRODUCT(M10:M70),MAX(O10:O70)),"GR")</f>
-        <v>GR</v>
+        <v>107</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="26" t="str">
+        <f>IFERROR(MIN(1-PRODUCT(M11:M71),MAX(O11:O71)),"GR")</f>
+        <v>GR</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="26">
-        <f>MIN(1-PRODUCT(N10:N70),MAX(P10:P70))</f>
+      <c r="C6" s="26">
+        <f>MIN(1-PRODUCT(N11:N71),MAX(P11:P71))</f>
         <v>1.2399999960166497E-7</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+    <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="17" t="str">
-        <f>IF(1-PRODUCT(N10:N70)&gt;MAX(P10:P70),"Ja","Nee")</f>
+      <c r="C7" s="17" t="str">
+        <f>IF(1-PRODUCT(N11:N71)&gt;MAX(P11:P71),"Ja","Nee")</f>
         <v>Nee</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M8" t="s">
+    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="36" t="s">
+      <c r="L10" s="2"/>
+      <c r="M10" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N10" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O10" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P10" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q10" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R10" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="39" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="U9" s="35"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="U10" s="35"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>0.5</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G11" s="25">
         <v>3.1000000000000001E-5</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I11" s="25">
         <v>1.1999999999999999E-7</v>
       </c>
-      <c r="J10" s="5">
-        <f t="shared" ref="J10:J11" si="0">IF($E10="Nee",0,IF(H10="Ja",IF(ISNUMBER(I10),I10,"-"),IF(ISNUMBER(G10),G10,"-")))</f>
+      <c r="J11" s="5">
+        <f t="shared" ref="J11:J12" si="0">IF($E11="Nee",0,IF(H11="Ja",IF(ISNUMBER(I11),I11,"-"),IF(ISNUMBER(G11),G11,"-")))</f>
         <v>1.1999999999999999E-7</v>
       </c>
-      <c r="K10" s="30" t="str">
-        <f t="shared" ref="K10:K13" si="1">IF(ISNUMBER($J10),S10,IF($T10,"D","ND"))</f>
+      <c r="K11" s="30" t="str">
+        <f t="shared" ref="K11:K14" si="1">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
         <v>+I</v>
       </c>
-      <c r="M10" s="31">
-        <f t="shared" ref="M10" si="2">IF(AND(F10="Geen faalkans",H10="Nee"),1,1-J10)</f>
+      <c r="M11" s="31">
+        <f t="shared" ref="M11" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>0.99999987999999995</v>
       </c>
-      <c r="N10" s="10">
-        <f t="shared" ref="N10" si="3">IF(J10="-",1,M10)</f>
+      <c r="N11" s="10">
+        <f t="shared" ref="N11" si="3">IF(J11="-",1,M11)</f>
         <v>0.99999987999999995</v>
       </c>
-      <c r="O10" s="10">
-        <f t="shared" ref="O10" si="4">IF(AND(F10="Geen faalkans",H10="Nee"),0,J10*$C$3)</f>
+      <c r="O11" s="10">
+        <f t="shared" ref="O11" si="4">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>2.3999999999999998E-7</v>
       </c>
-      <c r="P10" s="10">
-        <f>IF(J10="-",0,O10)</f>
+      <c r="P11" s="10">
+        <f>IF(J11="-",0,O11)</f>
         <v>2.3999999999999998E-7</v>
-      </c>
-      <c r="Q10" s="9">
-        <f t="array" ref="Q10">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J10,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.333333333333333E-7</v>
-      </c>
-      <c r="R10" s="9">
-        <f>IFERROR(MATCH($Q10,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>3</v>
-      </c>
-      <c r="S10" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R10)</f>
-        <v>+I</v>
-      </c>
-      <c r="T10" s="12" t="b">
-        <f>IF($E10="Ja",IF($H10="Ja",NOT(ISNUMBER($I10)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="26">
-        <v>2.9999999999999997E-5</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="26">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="J11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>+III</v>
-      </c>
-      <c r="M11" s="31">
-        <f t="shared" ref="M11:M13" si="5">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
-        <v>1</v>
-      </c>
-      <c r="N11" s="10">
-        <f t="shared" ref="N11:N13" si="6">IF(J11="-",1,M11)</f>
-        <v>1</v>
-      </c>
-      <c r="O11" s="10">
-        <f t="shared" ref="O11:O13" si="7">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="10">
-        <f t="shared" ref="P11:P13" si="8">IF(J11="-",0,O11)</f>
-        <v>0</v>
       </c>
       <c r="Q11" s="9">
         <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>3.333333333333333E-7</v>
       </c>
       <c r="R11" s="9">
         <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S11" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R11)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="T11" s="12" t="b">
-        <f t="shared" ref="T11:T13" si="9">IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
+        <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D12" s="9">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="26">
-        <v>4.01E-9</v>
+        <v>2.9999999999999997E-5</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="10" t="str">
-        <f>IF($E12="Nee",0,IF(H12="Ja",IF(ISNUMBER(I12),I12,"-"),IF(ISNUMBER(G12),G12,"-")))</f>
-        <v>-</v>
+      <c r="I12" s="26">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K12" s="32" t="str">
         <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="M12" s="31">
+        <f t="shared" ref="M12:M14" si="5">IF(AND(F12="Geen faalkans",H12="Nee"),1,1-J12)</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" ref="N12:N14" si="6">IF(J12="-",1,M12)</f>
+        <v>1</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" ref="O12:O14" si="7">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="10">
+        <f t="shared" ref="P12:P14" si="8">IF(J12="-",0,O12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>3.3333333333333334E-8</v>
+      </c>
+      <c r="R12" s="9">
+        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S12" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R12)</f>
+        <v>+III</v>
+      </c>
+      <c r="T12" s="12" t="b">
+        <f t="shared" ref="T12:T14" si="9">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="26">
+        <v>4.01E-9</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="10" t="str">
+        <f>IF($E13="Nee",0,IF(H13="Ja",IF(ISNUMBER(I13),I13,"-"),IF(ISNUMBER(G13),G13,"-")))</f>
+        <v>-</v>
+      </c>
+      <c r="K13" s="32" t="str">
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="M12" s="31" t="e">
+      <c r="M13" s="31" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N13" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="O12" s="10" t="e">
+      <c r="O13" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P13" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="9">
-        <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="9">
-        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S12" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R12)</f>
-        <v>+III</v>
-      </c>
-      <c r="T12" s="12" t="b">
+      <c r="Q13" s="9">
+        <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="9">
+        <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R13)</f>
+        <v>+III</v>
+      </c>
+      <c r="T13" s="12" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C14" s="9">
         <v>1.5</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="9">
         <v>2.0680000000000001</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G14" s="26">
         <v>1.2100000000000001E-7</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I14" s="26">
         <v>3.9999999999999994E-9</v>
       </c>
-      <c r="J13" s="10">
-        <f t="shared" ref="J13" si="10">IF($E13="Nee",0,IF(H13="Ja",IF(ISNUMBER(I13),I13,"-"),IF(ISNUMBER(G13),G13,"-")))</f>
+      <c r="J14" s="10">
+        <f t="shared" ref="J14" si="10">IF($E14="Nee",0,IF(H14="Ja",IF(ISNUMBER(I14),I14,"-"),IF(ISNUMBER(G14),G14,"-")))</f>
         <v>3.9999999999999994E-9</v>
       </c>
-      <c r="K13" s="32" t="str">
+      <c r="K14" s="32" t="str">
         <f t="shared" si="1"/>
         <v>+III</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M14" s="31">
         <f t="shared" si="5"/>
         <v>0.999999996</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N14" s="10">
         <f t="shared" si="6"/>
         <v>0.999999996</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O14" s="10">
         <f t="shared" si="7"/>
         <v>7.9999999999999988E-9</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P14" s="10">
         <f t="shared" si="8"/>
         <v>7.9999999999999988E-9</v>
       </c>
-      <c r="Q13" s="9">
-        <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+      <c r="Q14" s="9">
+        <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333334E-8</v>
       </c>
-      <c r="R13" s="9">
-        <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S13" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R13)</f>
-        <v>+III</v>
-      </c>
-      <c r="T13" s="12" t="b">
+      <c r="R14" s="9">
+        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S14" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R14)</f>
+        <v>+III</v>
+      </c>
+      <c r="T14" s="12" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="32"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="12"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
@@ -6397,44 +6404,64 @@
       <c r="S69" s="9"/>
       <c r="T69" s="12"/>
     </row>
-    <row r="70" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="13"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="34"/>
-      <c r="M70" s="33"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="14"/>
-      <c r="R70" s="14"/>
-      <c r="S70" s="14"/>
-      <c r="T70" s="17"/>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="M71" s="1"/>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B70" s="8"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="32"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="12"/>
+    </row>
+    <row r="71" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="34"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="14"/>
+      <c r="T71" s="17"/>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M72" s="1"/>
     </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M73" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G10:G70">
+  <conditionalFormatting sqref="G11:G71">
     <cfRule type="expression" dxfId="59" priority="11">
-      <formula>IF($E10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I70">
+  <conditionalFormatting sqref="I11:I71">
     <cfRule type="expression" dxfId="58" priority="10">
-      <formula>IF($H10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($H11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K70">
+  <conditionalFormatting sqref="K11:K71">
     <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -6452,7 +6479,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="30" operator="endsWith" id="{66C1998D-15BB-4F32-86A4-1C542E19908B}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -6463,7 +6490,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="31" operator="endsWith" id="{6418FE22-99A5-4340-8D15-7412BDDECB23}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -6474,7 +6501,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="32" operator="endsWith" id="{2E1F4C73-7BF4-44FB-95BB-E1E18C41151A}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -6485,7 +6512,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="33" operator="endsWith" id="{F6D5C182-9535-4ABE-A15A-43A844BD5583}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -6496,7 +6523,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="34" operator="containsText" id="{A8878CEC-0269-4E5C-8639-1D28F9774243}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -6507,7 +6534,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="35" operator="containsText" id="{EBB6C8A2-6184-4577-852F-E10D11AB01B0}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -6517,7 +6544,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K10:K70</xm:sqref>
+          <xm:sqref>K11:K71</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6527,7 +6554,7 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E71:E86 F10:F70</xm:sqref>
+          <xm:sqref>E72:E87 F11:F71</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6537,10 +6564,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFA3C0E-3A5C-4A61-A32F-6BC05AD0EB33}">
-  <dimension ref="B2:U12"/>
+  <dimension ref="B2:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6578,171 +6605,179 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="26">
-        <f>IFERROR(MIN(1-PRODUCT(M10:M10),MAX(O10:O10)),"GR")</f>
-        <v>0</v>
+        <v>107</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="26">
+        <f>IFERROR(MIN(1-PRODUCT(M11:M11),MAX(O11:O11)),"GR")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="26">
-        <f>MIN(1-PRODUCT(N10:N10),MAX(P10:P10))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+      <c r="C6" s="26">
+        <f>MIN(1-PRODUCT(N11:N11),MAX(P11:P11))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="17" t="str">
-        <f>IF(1-PRODUCT(N10:N10)&gt;MAX(P10:P10),"Ja","Nee")</f>
+      <c r="C7" s="17" t="str">
+        <f>IF(1-PRODUCT(N11:N11)&gt;MAX(P11:P11),"Ja","Nee")</f>
         <v>Nee</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M8" t="s">
+    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="36" t="s">
+      <c r="L10" s="2"/>
+      <c r="M10" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N10" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O10" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P10" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q10" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R10" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="39" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="U9" s="35"/>
-    </row>
-    <row r="10" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="42" t="s">
+      <c r="U10" s="35"/>
+    </row>
+    <row r="11" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="43">
-        <v>0</v>
-      </c>
-      <c r="D10" s="43">
+      <c r="C11" s="43">
+        <v>0</v>
+      </c>
+      <c r="D11" s="43">
         <v>2.0680000000000001</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F11" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="42" t="s">
+      <c r="G11" s="45"/>
+      <c r="H11" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="45"/>
-      <c r="J10" s="46">
-        <v>0</v>
-      </c>
-      <c r="K10" s="47" t="str">
-        <f>IF(ISNUMBER($J10),S10,IF($T10,"D","ND"))</f>
-        <v>+III</v>
-      </c>
-      <c r="M10" s="33">
-        <f>IF(AND(F10="Geen faalkans",H10="Nee"),1,1-J10)</f>
-        <v>1</v>
-      </c>
-      <c r="N10" s="15">
-        <f>IF(J10="-",1,M10)</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="15">
-        <f>IF(AND(F10="Geen faalkans",H10="Nee"),0,J10*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="15">
-        <f>IF(J10="-",0,O10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="14">
-        <f t="array" ref="Q10">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J10,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+      <c r="I11" s="45"/>
+      <c r="J11" s="46">
+        <v>0</v>
+      </c>
+      <c r="K11" s="47" t="str">
+        <f>IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
+        <v>+III</v>
+      </c>
+      <c r="M11" s="33">
+        <f>IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <v>1</v>
+      </c>
+      <c r="N11" s="15">
+        <f>IF(J11="-",1,M11)</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="15">
+        <f>IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="15">
+        <f>IF(J11="-",0,O11)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14">
+        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333334E-8</v>
       </c>
-      <c r="R10" s="14">
-        <f>IFERROR(MATCH($Q10,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S10" s="14" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R10)</f>
-        <v>+III</v>
-      </c>
-      <c r="T10" s="17" t="b">
-        <f>IF($E10="Ja",IF($H10="Ja",NOT(ISNUMBER(#REF!)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="M11" s="1"/>
+      <c r="R11" s="14">
+        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S11" s="14" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R11)</f>
+        <v>+III</v>
+      </c>
+      <c r="T11" s="17" t="b">
+        <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER(#REF!)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M12" s="1"/>
     </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M13" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="G11">
     <cfRule type="expression" dxfId="48" priority="11">
-      <formula>IF($E10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
+  <conditionalFormatting sqref="I11">
     <cfRule type="expression" dxfId="47" priority="10">
-      <formula>IF($H10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($H11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
+  <conditionalFormatting sqref="K11">
     <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -6760,7 +6795,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="36" operator="endsWith" id="{F7B08000-9400-46DD-A131-35187929BFC9}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -6771,7 +6806,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="37" operator="endsWith" id="{6D0591F0-1D10-4810-AA14-0BE30C52E201}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -6782,7 +6817,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="38" operator="endsWith" id="{EF308A70-7C0F-485F-B494-C521E8B44256}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -6793,7 +6828,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="39" operator="endsWith" id="{9B64F30E-AFD8-4003-B940-A265D08BC3ED}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -6804,7 +6839,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="40" operator="containsText" id="{DAD0CB9A-8397-4826-B226-78C7572F4129}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -6815,7 +6850,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="41" operator="containsText" id="{292412C6-8FED-46EB-8018-EC091EC7347F}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -6825,7 +6860,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K10</xm:sqref>
+          <xm:sqref>K11</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6835,13 +6870,13 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E11:E26</xm:sqref>
+          <xm:sqref>E12:E27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB048516-AC25-40E8-BE09-761864A40761}">
           <x14:formula1>
             <xm:f>Informatiepagina!$B$20:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref>F10</xm:sqref>
+          <xm:sqref>F11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6851,10 +6886,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4337BDE-5D5C-4814-877A-41AF49DBDF5F}">
-  <dimension ref="B2:U29"/>
+  <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D18"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6891,202 +6926,148 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="26" t="str">
-        <f>IFERROR(MIN(1-PRODUCT(M10:M27),MAX(O10:O27)),"GR")</f>
-        <v>GR</v>
+        <v>107</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="26" t="str">
+        <f>IFERROR(MIN(1-PRODUCT(M11:M28),MAX(O11:O28)),"GR")</f>
+        <v>GR</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="26">
-        <f>MIN(1-PRODUCT(N10:N27),MAX(P10:P27))</f>
+      <c r="C6" s="26">
+        <f>MIN(1-PRODUCT(N11:N28),MAX(P11:P28))</f>
         <v>7.1118888556043203E-9</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+    <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="17" t="str">
-        <f>IF(1-PRODUCT(N10:N27)&gt;MAX(P10:P27),"Ja","Nee")</f>
+      <c r="C7" s="17" t="str">
+        <f>IF(1-PRODUCT(N11:N28)&gt;MAX(P11:P28),"Ja","Nee")</f>
         <v>Nee</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M8" t="s">
+    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="36" t="s">
+      <c r="L10" s="2"/>
+      <c r="M10" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N10" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O10" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P10" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q10" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R10" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="39" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="U9" s="35"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="U10" s="35"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>0.1</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="3" t="s">
+      <c r="G11" s="25"/>
+      <c r="H11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="5" t="str">
-        <f t="shared" ref="J10:J18" si="0">IF($E10="Nee",0,IF(H10="Ja",IF(ISNUMBER(I10),I10,"-"),IF(ISNUMBER(G10),G10,"-")))</f>
+      <c r="I11" s="25"/>
+      <c r="J11" s="5" t="str">
+        <f t="shared" ref="J11:J19" si="0">IF($E11="Nee",0,IF(H11="Ja",IF(ISNUMBER(I11),I11,"-"),IF(ISNUMBER(G11),G11,"-")))</f>
         <v>-</v>
       </c>
-      <c r="K10" s="30" t="str">
-        <f t="shared" ref="K10:K11" si="1">IF(ISNUMBER($J10),S10,IF($T10,"D","ND"))</f>
+      <c r="K11" s="30" t="str">
+        <f t="shared" ref="K11:K12" si="1">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
         <v>D</v>
       </c>
-      <c r="M10" s="31" t="e">
-        <f t="shared" ref="M10:M11" si="2">IF(AND(F10="Geen faalkans",H10="Nee"),1,1-J10)</f>
+      <c r="M11" s="31" t="e">
+        <f t="shared" ref="M11:M12" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N10" s="10">
-        <f t="shared" ref="N10:N11" si="3">IF(J10="-",1,M10)</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="10" t="e">
-        <f t="shared" ref="O10:O11" si="4">IF(AND(F10="Geen faalkans",H10="Nee"),0,J10*$C$3)</f>
+      <c r="N11" s="10">
+        <f t="shared" ref="N11:N12" si="3">IF(J11="-",1,M11)</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="10" t="e">
+        <f t="shared" ref="O11:O12" si="4">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P10" s="10">
-        <f>IF(J10="-",0,O10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <f t="array" ref="Q10">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J10,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="9">
-        <f>IFERROR(MATCH($Q10,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S10" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R10)</f>
-        <v>+III</v>
-      </c>
-      <c r="T10" s="12" t="b">
-        <f>IF($E10="Ja",IF($H10="Ja",NOT(ISNUMBER($I10)),FALSE),FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>+III</v>
-      </c>
-      <c r="M11" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N11" s="10">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O11" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="P11" s="10">
-        <f t="shared" ref="P11:P12" si="5">IF(J11="-",0,O11)</f>
+        <f>IF(J11="-",0,O11)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="9">
         <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>0</v>
       </c>
       <c r="R11" s="9">
         <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -7097,58 +7078,54 @@
         <v>+III</v>
       </c>
       <c r="T11" s="12" t="b">
-        <f t="shared" ref="T11:T18" si="6">IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
-        <v>0</v>
+        <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="9">
         <v>0.5</v>
       </c>
-      <c r="D12" s="9">
-        <v>0.6</v>
-      </c>
       <c r="E12" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="26">
-        <v>6.6666666666666668E-9</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G12" s="26"/>
       <c r="H12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="26">
-        <v>2.2222222222222221E-10</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I12" s="26"/>
       <c r="J12" s="10">
         <f t="shared" si="0"/>
-        <v>2.2222222222222221E-10</v>
+        <v>0</v>
       </c>
       <c r="K12" s="32" t="str">
-        <f t="shared" ref="K12:K18" si="7">IF(ISNUMBER($J12),S12,IF($T12,"D","ND"))</f>
+        <f t="shared" si="1"/>
         <v>+III</v>
       </c>
       <c r="M12" s="31">
-        <f t="shared" ref="M12:M18" si="8">IF(AND(F12="Geen faalkans",H12="Nee"),1,1-J12)</f>
-        <v>0.99999999977777776</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" ref="N12:N18" si="9">IF(J12="-",1,M12)</f>
-        <v>0.99999999977777776</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" ref="O12:O18" si="10">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
-        <v>6.6666666666666664E-10</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" si="5"/>
-        <v>6.6666666666666664E-10</v>
+        <f t="shared" ref="P12:P13" si="5">IF(J12="-",0,O12)</f>
+        <v>0</v>
       </c>
       <c r="Q12" s="9">
         <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -7163,54 +7140,58 @@
         <v>+III</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="T12:T19" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="9">
         <v>0.6</v>
       </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
       <c r="E13" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="26"/>
+        <v>23</v>
+      </c>
+      <c r="G13" s="26">
+        <v>6.6666666666666668E-9</v>
+      </c>
       <c r="H13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="26"/>
+        <v>17</v>
+      </c>
+      <c r="I13" s="26">
+        <v>2.2222222222222221E-10</v>
+      </c>
       <c r="J13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2222222222222221E-10</v>
       </c>
       <c r="K13" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K13:K19" si="7">IF(ISNUMBER($J13),S13,IF($T13,"D","ND"))</f>
         <v>+III</v>
       </c>
       <c r="M13" s="31">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" ref="M13:M19" si="8">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
+        <v>0.99999999977777776</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" ref="N13:N19" si="9">IF(J13="-",1,M13)</f>
+        <v>0.99999999977777776</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" ref="O13:O19" si="10">IF(AND(F13="Geen faalkans",H13="Nee"),0,J13*$C$3)</f>
+        <v>6.6666666666666664E-10</v>
       </c>
       <c r="P13" s="10">
-        <f t="shared" ref="P13:P18" si="11">IF(J13="-",0,O13)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>6.6666666666666664E-10</v>
       </c>
       <c r="Q13" s="9">
         <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -7231,32 +7212,28 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="9">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D14" s="9">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="26">
-        <v>9.9999999999999995E-7</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G14" s="26"/>
       <c r="H14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="26">
-        <v>2.2300000000000001E-10</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I14" s="26"/>
       <c r="J14" s="10">
         <f t="shared" si="0"/>
-        <v>2.2300000000000001E-10</v>
+        <v>0</v>
       </c>
       <c r="K14" s="32" t="str">
         <f t="shared" si="7"/>
@@ -7264,19 +7241,19 @@
       </c>
       <c r="M14" s="31">
         <f t="shared" si="8"/>
-        <v>0.99999999977700005</v>
+        <v>1</v>
       </c>
       <c r="N14" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999999977700005</v>
+        <v>1</v>
       </c>
       <c r="O14" s="10">
         <f t="shared" si="10"/>
-        <v>6.6900000000000007E-10</v>
+        <v>0</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" si="11"/>
-        <v>6.6900000000000007E-10</v>
+        <f t="shared" ref="P14:P19" si="11">IF(J14="-",0,O14)</f>
+        <v>0</v>
       </c>
       <c r="Q14" s="9">
         <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -7297,28 +7274,32 @@
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D15" s="9">
-        <v>1.5</v>
-      </c>
       <c r="E15" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="26"/>
+        <v>23</v>
+      </c>
+      <c r="G15" s="26">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="H15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="26"/>
+        <v>17</v>
+      </c>
+      <c r="I15" s="26">
+        <v>2.2300000000000001E-10</v>
+      </c>
       <c r="J15" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2300000000000001E-10</v>
       </c>
       <c r="K15" s="32" t="str">
         <f t="shared" si="7"/>
@@ -7326,19 +7307,19 @@
       </c>
       <c r="M15" s="31">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.99999999977700005</v>
       </c>
       <c r="N15" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.99999999977700005</v>
       </c>
       <c r="O15" s="10">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>6.6900000000000007E-10</v>
       </c>
       <c r="P15" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>6.6900000000000007E-10</v>
       </c>
       <c r="Q15" s="9">
         <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -7359,32 +7340,28 @@
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D16" s="9">
         <v>1.5</v>
       </c>
-      <c r="D16" s="9">
-        <v>1.6</v>
-      </c>
       <c r="E16" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="26">
-        <v>2.9999999999999997E-5</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G16" s="26"/>
       <c r="H16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="26">
-        <v>6.6666666666666668E-9</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I16" s="26"/>
       <c r="J16" s="10">
         <f t="shared" si="0"/>
-        <v>6.6666666666666668E-9</v>
+        <v>0</v>
       </c>
       <c r="K16" s="32" t="str">
         <f t="shared" si="7"/>
@@ -7392,19 +7369,19 @@
       </c>
       <c r="M16" s="31">
         <f t="shared" si="8"/>
-        <v>0.99999999333333334</v>
+        <v>1</v>
       </c>
       <c r="N16" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999999333333334</v>
+        <v>1</v>
       </c>
       <c r="O16" s="10">
         <f t="shared" si="10"/>
-        <v>2E-8</v>
+        <v>0</v>
       </c>
       <c r="P16" s="10">
         <f t="shared" si="11"/>
-        <v>2E-8</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="9">
         <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -7425,28 +7402,32 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="9">
         <v>1.6</v>
       </c>
-      <c r="D17" s="9">
-        <v>2</v>
-      </c>
       <c r="E17" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="26"/>
+        <v>23</v>
+      </c>
+      <c r="G17" s="26">
+        <v>2.9999999999999997E-5</v>
+      </c>
       <c r="H17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="26"/>
+        <v>17</v>
+      </c>
+      <c r="I17" s="26">
+        <v>6.6666666666666668E-9</v>
+      </c>
       <c r="J17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.6666666666666668E-9</v>
       </c>
       <c r="K17" s="32" t="str">
         <f t="shared" si="7"/>
@@ -7454,19 +7435,19 @@
       </c>
       <c r="M17" s="31">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.99999999333333334</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.99999999333333334</v>
       </c>
       <c r="O17" s="10">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2E-8</v>
       </c>
       <c r="P17" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2E-8</v>
       </c>
       <c r="Q17" s="9">
         <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -7487,27 +7468,25 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="D18" s="9">
         <v>2</v>
       </c>
-      <c r="D18" s="9">
-        <v>2.0680000000000001</v>
-      </c>
       <c r="E18" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="26">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I18" s="26"/>
       <c r="J18" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7550,24 +7529,68 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="G19" s="26"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="32"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="12"/>
+      <c r="H19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="26">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>+III</v>
+      </c>
+      <c r="M19" s="31">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9">
+        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>3.3333333333333334E-8</v>
+      </c>
+      <c r="R19" s="9">
+        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S19" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R19)</f>
+        <v>+III</v>
+      </c>
+      <c r="T19" s="12" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
@@ -7709,17 +7732,17 @@
       <c r="S26" s="9"/>
       <c r="T26" s="12"/>
     </row>
-    <row r="27" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="34"/>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="32"/>
       <c r="M27" s="31"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
@@ -7729,24 +7752,44 @@
       <c r="S27" s="9"/>
       <c r="T27" s="12"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="M28" s="1"/>
+    <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="34"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="12"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M29" s="1"/>
     </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M30" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G10:G27">
+  <conditionalFormatting sqref="G11:G28">
     <cfRule type="expression" dxfId="37" priority="5">
-      <formula>IF($E10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I27">
+  <conditionalFormatting sqref="I11:I28">
     <cfRule type="expression" dxfId="36" priority="4">
-      <formula>IF($H10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($H11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K27">
+  <conditionalFormatting sqref="K11:K28">
     <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -7764,7 +7807,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="6" operator="endsWith" id="{ABB37571-79F6-4148-B9CE-2132566F3EBC}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -7775,7 +7818,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="7" operator="endsWith" id="{FD55077C-3742-45D6-8C63-4F3978DD275E}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -7786,7 +7829,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="8" operator="endsWith" id="{4FDC3C25-E9F9-443E-A88E-2102EB566A77}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -7797,7 +7840,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="9" operator="endsWith" id="{B6B08F1B-E8C6-4E24-9A04-8CE60FD8BEA8}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -7808,7 +7851,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="10" operator="containsText" id="{373E8781-7B94-4A13-B857-164B12521A98}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -7819,7 +7862,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="11" operator="containsText" id="{102DC694-4285-4E19-ACB8-CBA4D384AD46}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -7829,7 +7872,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K10:K27</xm:sqref>
+          <xm:sqref>K11:K28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7839,7 +7882,7 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E28:E43 F10:F27</xm:sqref>
+          <xm:sqref>E29:E44 F11:F28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7849,10 +7892,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A4475A-3782-4C92-8ED6-63AC240A6132}">
-  <dimension ref="B2:U29"/>
+  <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7889,202 +7932,148 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="26" t="str">
-        <f>IFERROR(MIN(1-PRODUCT(M10:M27),MAX(O10:O27)),"GR")</f>
-        <v>GR</v>
+        <v>107</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="26" t="str">
+        <f>IFERROR(MIN(1-PRODUCT(M11:M28),MAX(O11:O28)),"GR")</f>
+        <v>GR</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="26">
-        <f>MIN(1-PRODUCT(N10:N27),MAX(P10:P27))</f>
+      <c r="C6" s="26">
+        <f>MIN(1-PRODUCT(N11:N28),MAX(P11:P28))</f>
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+    <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="17" t="str">
-        <f>IF(1-PRODUCT(N10:N27)&gt;MAX(P10:P27),"Ja","Nee")</f>
+      <c r="C7" s="17" t="str">
+        <f>IF(1-PRODUCT(N11:N28)&gt;MAX(P11:P28),"Ja","Nee")</f>
         <v>Ja</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M8" t="s">
+    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="36" t="s">
+      <c r="L10" s="2"/>
+      <c r="M10" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N10" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O10" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P10" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q10" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R10" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="39" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="U9" s="35"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="U10" s="35"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>0.1</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="3" t="s">
+      <c r="G11" s="25"/>
+      <c r="H11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="5" t="str">
-        <f t="shared" ref="J10:J17" si="0">IF($E10="Nee",0,IF(H10="Ja",IF(ISNUMBER(I10),I10,"-"),IF(ISNUMBER(G10),G10,"-")))</f>
+      <c r="I11" s="25"/>
+      <c r="J11" s="5" t="str">
+        <f t="shared" ref="J11:J18" si="0">IF($E11="Nee",0,IF(H11="Ja",IF(ISNUMBER(I11),I11,"-"),IF(ISNUMBER(G11),G11,"-")))</f>
         <v>-</v>
       </c>
-      <c r="K10" s="30" t="str">
-        <f t="shared" ref="K10:K18" si="1">IF(ISNUMBER($J10),S10,IF($T10,"D","ND"))</f>
+      <c r="K11" s="30" t="str">
+        <f t="shared" ref="K11:K19" si="1">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
         <v>D</v>
       </c>
-      <c r="M10" s="31" t="e">
-        <f t="shared" ref="M10:M18" si="2">IF(AND(F10="Geen faalkans",H10="Nee"),1,1-J10)</f>
+      <c r="M11" s="31" t="e">
+        <f t="shared" ref="M11:M19" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N10" s="10">
-        <f t="shared" ref="N10:N18" si="3">IF(J10="-",1,M10)</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="10" t="e">
-        <f t="shared" ref="O10:O18" si="4">IF(AND(F10="Geen faalkans",H10="Nee"),0,J10*$C$3)</f>
+      <c r="N11" s="10">
+        <f t="shared" ref="N11:N19" si="3">IF(J11="-",1,M11)</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="10" t="e">
+        <f t="shared" ref="O11:O19" si="4">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P10" s="10">
-        <f>IF(J10="-",0,O10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <f t="array" ref="Q10">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J10,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="9">
-        <f>IFERROR(MATCH($Q10,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S10" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R10)</f>
-        <v>+III</v>
-      </c>
-      <c r="T10" s="12" t="b">
-        <f>IF($E10="Ja",IF($H10="Ja",NOT(ISNUMBER($I10)),FALSE),FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>+III</v>
-      </c>
-      <c r="M11" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N11" s="10">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O11" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="P11" s="10">
-        <f t="shared" ref="P11:P18" si="5">IF(J11="-",0,O11)</f>
+        <f>IF(J11="-",0,O11)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="9">
         <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>0</v>
       </c>
       <c r="R11" s="9">
         <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8095,36 +8084,34 @@
         <v>+III</v>
       </c>
       <c r="T11" s="12" t="b">
-        <f t="shared" ref="T11:T18" si="6">IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
-        <v>0</v>
+        <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="9">
         <v>0.5</v>
       </c>
-      <c r="D12" s="9">
-        <v>0.6</v>
-      </c>
       <c r="E12" s="23" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="26">
-        <v>7.843137254901961E-11</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G12" s="26"/>
       <c r="H12" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I12" s="26"/>
       <c r="J12" s="10">
         <f t="shared" si="0"/>
-        <v>7.843137254901961E-11</v>
+        <v>0</v>
       </c>
       <c r="K12" s="32" t="str">
         <f t="shared" si="1"/>
@@ -8132,19 +8119,19 @@
       </c>
       <c r="M12" s="31">
         <f t="shared" si="2"/>
-        <v>0.99999999992156863</v>
+        <v>1</v>
       </c>
       <c r="N12" s="10">
         <f t="shared" si="3"/>
-        <v>0.99999999992156863</v>
+        <v>1</v>
       </c>
       <c r="O12" s="10">
         <f t="shared" si="4"/>
-        <v>7.843137254901961E-11</v>
+        <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" si="5"/>
-        <v>7.843137254901961E-11</v>
+        <f t="shared" ref="P12:P19" si="5">IF(J12="-",0,O12)</f>
+        <v>0</v>
       </c>
       <c r="Q12" s="9">
         <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -8159,34 +8146,36 @@
         <v>+III</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="T12:T19" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="9">
         <v>0.6</v>
       </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
       <c r="E13" s="23" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="26"/>
+        <v>21</v>
+      </c>
+      <c r="G13" s="26">
+        <v>7.843137254901961E-11</v>
+      </c>
       <c r="H13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I13" s="26"/>
       <c r="J13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.843137254901961E-11</v>
       </c>
       <c r="K13" s="32" t="str">
         <f t="shared" si="1"/>
@@ -8194,19 +8183,19 @@
       </c>
       <c r="M13" s="31">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.99999999992156863</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.99999999992156863</v>
       </c>
       <c r="O13" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7.843137254901961E-11</v>
       </c>
       <c r="P13" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.843137254901961E-11</v>
       </c>
       <c r="Q13" s="9">
         <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -8227,23 +8216,21 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="9">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D14" s="9">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="26">
-        <v>0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G14" s="26"/>
       <c r="H14" s="8" t="s">
         <v>18</v>
       </c>
@@ -8291,21 +8278,23 @@
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D15" s="9">
-        <v>1.5</v>
-      </c>
       <c r="E15" s="23" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="26"/>
+        <v>21</v>
+      </c>
+      <c r="G15" s="26">
+        <v>0</v>
+      </c>
       <c r="H15" s="8" t="s">
         <v>18</v>
       </c>
@@ -8353,64 +8342,60 @@
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D16" s="9">
         <v>1.5</v>
       </c>
-      <c r="D16" s="9">
-        <v>1.6</v>
-      </c>
       <c r="E16" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="26">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G16" s="26"/>
       <c r="H16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="26">
-        <v>9.9999999999999995E-7</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I16" s="26"/>
       <c r="J16" s="10">
         <f t="shared" si="0"/>
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
       <c r="K16" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>-I</v>
+        <v>+III</v>
       </c>
       <c r="M16" s="31">
         <f t="shared" si="2"/>
-        <v>0.99999899999999997</v>
+        <v>1</v>
       </c>
       <c r="N16" s="10">
         <f t="shared" si="3"/>
-        <v>0.99999899999999997</v>
+        <v>1</v>
       </c>
       <c r="O16" s="10">
         <f t="shared" si="4"/>
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
       <c r="P16" s="10">
         <f t="shared" si="5"/>
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="9">
         <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.0000000000000001E-6</v>
+        <v>3.3333333333333334E-8</v>
       </c>
       <c r="R16" s="9">
         <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S16" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
-        <v>-I</v>
+        <v>+III</v>
       </c>
       <c r="T16" s="12" t="b">
         <f t="shared" si="6"/>
@@ -8419,60 +8404,64 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="9">
         <v>1.6</v>
       </c>
-      <c r="D17" s="9">
-        <v>2</v>
-      </c>
       <c r="E17" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="26"/>
+        <v>21</v>
+      </c>
+      <c r="G17" s="26">
+        <v>1</v>
+      </c>
       <c r="H17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="26"/>
+        <v>17</v>
+      </c>
+      <c r="I17" s="26">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="J17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K17" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>-I</v>
       </c>
       <c r="M17" s="31">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.99999899999999997</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.99999899999999997</v>
       </c>
       <c r="O17" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="P17" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="Q17" s="9">
         <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="R17" s="9">
         <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S17" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R17)</f>
-        <v>+III</v>
+        <v>-I</v>
       </c>
       <c r="T17" s="12" t="b">
         <f t="shared" si="6"/>
@@ -8481,31 +8470,27 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="D18" s="9">
         <v>2</v>
       </c>
-      <c r="D18" s="9">
-        <v>2.0680000000000001</v>
-      </c>
       <c r="E18" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="26">
-        <v>2.3529411764705885E-9</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G18" s="26"/>
       <c r="H18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="26">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I18" s="26"/>
       <c r="J18" s="10">
-        <f>IF($E18="Nee",0,IF(H18="Ja",IF(ISNUMBER(I18),I18,"-"),IF(ISNUMBER(G18),G18,"-")))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K18" s="32" t="str">
@@ -8546,24 +8531,70 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="32"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="12"/>
+      <c r="B19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="26">
+        <v>2.3529411764705885E-9</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="26">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10">
+        <f>IF($E19="Nee",0,IF(H19="Ja",IF(ISNUMBER(I19),I19,"-"),IF(ISNUMBER(G19),G19,"-")))</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="M19" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9">
+        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>3.3333333333333334E-8</v>
+      </c>
+      <c r="R19" s="9">
+        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S19" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R19)</f>
+        <v>+III</v>
+      </c>
+      <c r="T19" s="12" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
@@ -8705,17 +8736,17 @@
       <c r="S26" s="9"/>
       <c r="T26" s="12"/>
     </row>
-    <row r="27" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="34"/>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="32"/>
       <c r="M27" s="31"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
@@ -8725,24 +8756,44 @@
       <c r="S27" s="9"/>
       <c r="T27" s="12"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="M28" s="1"/>
+    <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="34"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="12"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M29" s="1"/>
     </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M30" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G10:G27">
+  <conditionalFormatting sqref="G11:G28">
     <cfRule type="expression" dxfId="26" priority="5">
-      <formula>IF($E10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I27">
+  <conditionalFormatting sqref="I11:I28">
     <cfRule type="expression" dxfId="25" priority="4">
-      <formula>IF($H10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($H11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K27">
+  <conditionalFormatting sqref="K11:K28">
     <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -8760,7 +8811,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="6" operator="endsWith" id="{1EBB7798-64BC-4E62-B5ED-EDC8D12F766E}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -8771,7 +8822,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="7" operator="endsWith" id="{D525A4D3-4210-4434-88AA-077EC405481F}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -8782,7 +8833,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="8" operator="endsWith" id="{70AE3533-A03A-4765-98EF-A2F7520BB2C5}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -8793,7 +8844,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="9" operator="endsWith" id="{3BE27E41-6EB9-4688-923B-987C0F78C96E}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -8804,7 +8855,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="10" operator="containsText" id="{9D267873-A89D-4F45-952A-AA5EA8DE68C2}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -8815,7 +8866,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="11" operator="containsText" id="{21BE4470-53F7-4774-9EF3-925E463CB556}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -8825,7 +8876,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K10:K27</xm:sqref>
+          <xm:sqref>K11:K28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8835,7 +8886,7 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E28:E43 F10:F27</xm:sqref>
+          <xm:sqref>E29:E44 F11:F28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8845,10 +8896,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A27DBF-2298-4509-84AE-DCEFED147711}">
-  <dimension ref="B2:U28"/>
+  <dimension ref="B2:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8885,199 +8936,145 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="26" t="str">
-        <f>IFERROR(MIN(1-PRODUCT(M10:M26),MAX(O10:O26)),"GR")</f>
-        <v>GR</v>
+        <v>107</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="26" t="str">
+        <f>IFERROR(MIN(1-PRODUCT(M11:M27),MAX(O11:O27)),"GR")</f>
+        <v>GR</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="26">
-        <f>MIN(1-PRODUCT(N10:N26),MAX(P10:P26))</f>
+      <c r="C6" s="26">
+        <f>MIN(1-PRODUCT(N11:N27),MAX(P11:P27))</f>
         <v>1.0039999960298474E-6</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+    <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="17" t="str">
-        <f>IF(1-PRODUCT(N10:N26)&gt;MAX(P10:P26),"Ja","Nee")</f>
+      <c r="C7" s="17" t="str">
+        <f>IF(1-PRODUCT(N11:N27)&gt;MAX(P11:P27),"Ja","Nee")</f>
         <v>Nee</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M8" t="s">
+    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="36" t="s">
+      <c r="L10" s="2"/>
+      <c r="M10" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N10" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O10" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P10" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q10" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R10" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="39" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="U9" s="35"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="U10" s="35"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>0.1</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="25">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="G11" s="25">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="5">
-        <f t="shared" ref="J10:J18" si="0">IF($E10="Nee",0,IF(H10="Ja",IF(ISNUMBER(I10),I10,"-"),IF(ISNUMBER(G10),G10,"-")))</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="30" t="str">
-        <f t="shared" ref="K10:K11" si="1">IF(ISNUMBER($J10),S10,IF($T10,"D","ND"))</f>
-        <v>+III</v>
-      </c>
-      <c r="M10" s="31">
-        <f t="shared" ref="M10:M11" si="2">IF(AND(F10="Geen faalkans",H10="Nee"),1,1-J10)</f>
-        <v>1</v>
-      </c>
-      <c r="N10" s="10">
-        <f t="shared" ref="N10:N11" si="3">IF(J10="-",1,M10)</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="10">
-        <f>IF(AND(F10="Geen faalkans",H10="Nee"),0,J10*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="10">
-        <f>IF(J10="-",0,O10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <f t="array" ref="Q10">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J10,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
-      </c>
-      <c r="R10" s="9">
-        <f>IFERROR(MATCH($Q10,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S10" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R10)</f>
-        <v>+III</v>
-      </c>
-      <c r="T10" s="12" t="b">
-        <f>IF($E10="Ja",IF($H10="Ja",NOT(ISNUMBER($I10)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="32" t="str">
-        <f t="shared" si="1"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="5">
+        <f t="shared" ref="J11:J19" si="0">IF($E11="Nee",0,IF(H11="Ja",IF(ISNUMBER(I11),I11,"-"),IF(ISNUMBER(G11),G11,"-")))</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="30" t="str">
+        <f t="shared" ref="K11:K12" si="1">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
         <v>+III</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="M11:M12" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N11:N12" si="3">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11:O12" si="4">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f>IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
-        <f t="shared" ref="P11:P12" si="5">IF(J11="-",0,O11)</f>
+        <f>IF(J11="-",0,O11)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="9">
@@ -9093,58 +9090,54 @@
         <v>+III</v>
       </c>
       <c r="T11" s="12" t="b">
-        <f t="shared" ref="T11:T18" si="6">IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
+        <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="9">
         <v>0.5</v>
       </c>
-      <c r="D12" s="9">
-        <v>0.6</v>
-      </c>
       <c r="E12" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="26">
-        <v>2.9999999999999997E-5</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G12" s="26"/>
       <c r="H12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="26">
-        <v>4.0000000000000002E-9</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I12" s="26"/>
       <c r="J12" s="10">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-9</v>
+        <v>0</v>
       </c>
       <c r="K12" s="32" t="str">
-        <f t="shared" ref="K12:K18" si="7">IF(ISNUMBER($J12),S12,IF($T12,"D","ND"))</f>
+        <f t="shared" si="1"/>
         <v>+III</v>
       </c>
       <c r="M12" s="31">
-        <f t="shared" ref="M12:M18" si="8">IF(AND(F12="Geen faalkans",H12="Nee"),1,1-J12)</f>
-        <v>0.999999996</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" ref="N12:N18" si="9">IF(J12="-",1,M12)</f>
-        <v>0.999999996</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" si="4"/>
-        <v>8.0000000000000005E-9</v>
+        <f t="shared" ref="O12:O13" si="4">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
+        <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" si="5"/>
-        <v>8.0000000000000005E-9</v>
+        <f t="shared" ref="P12:P13" si="5">IF(J12="-",0,O12)</f>
+        <v>0</v>
       </c>
       <c r="Q12" s="9">
         <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -9159,54 +9152,58 @@
         <v>+III</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="T12:T19" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="9">
         <v>0.6</v>
       </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
       <c r="E13" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="26"/>
+        <v>23</v>
+      </c>
+      <c r="G13" s="26">
+        <v>2.9999999999999997E-5</v>
+      </c>
       <c r="H13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="26"/>
+        <v>17</v>
+      </c>
+      <c r="I13" s="26">
+        <v>4.0000000000000002E-9</v>
+      </c>
       <c r="J13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.0000000000000002E-9</v>
       </c>
       <c r="K13" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K13:K19" si="7">IF(ISNUMBER($J13),S13,IF($T13,"D","ND"))</f>
         <v>+III</v>
       </c>
       <c r="M13" s="31">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" ref="M13:M19" si="8">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
+        <v>0.999999996</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" ref="N13:N19" si="9">IF(J13="-",1,M13)</f>
+        <v>0.999999996</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" ref="O13:O18" si="10">IF(AND(F13="Geen faalkans",H13="Nee"),0,J13*$C$3)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8.0000000000000005E-9</v>
       </c>
       <c r="P13" s="10">
-        <f t="shared" ref="P13:P18" si="11">IF(J13="-",0,O13)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>8.0000000000000005E-9</v>
       </c>
       <c r="Q13" s="9">
         <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -9227,116 +9224,116 @@
     </row>
     <row r="14" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="9">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D14" s="9">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="26"/>
+      <c r="H14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="26"/>
+      <c r="J14" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>+III</v>
+      </c>
+      <c r="M14" s="31">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="10">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O14" s="10">
+        <f t="shared" ref="O14:O19" si="10">IF(AND(F14="Geen faalkans",H14="Nee"),0,J14*$C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="10">
+        <f t="shared" ref="P14:P19" si="11">IF(J14="-",0,O14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
+        <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>3.3333333333333334E-8</v>
+      </c>
+      <c r="R14" s="9">
+        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S14" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R14)</f>
+        <v>+III</v>
+      </c>
+      <c r="T14" s="12" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="26">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="10" t="str">
+      <c r="I15" s="26"/>
+      <c r="J15" s="10" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="K14" s="32" t="str">
+      <c r="K15" s="32" t="str">
         <f t="shared" si="7"/>
         <v>D</v>
       </c>
-      <c r="M14" s="31" t="e">
+      <c r="M15" s="31" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N15" s="10">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="O14" s="10" t="e">
+      <c r="O15" s="10" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P14" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="9">
-        <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="9">
-        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S14" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R14)</f>
-        <v>+III</v>
-      </c>
-      <c r="T14" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>+III</v>
-      </c>
-      <c r="M15" s="31">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="N15" s="10">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="P15" s="10">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q15" s="9">
         <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>0</v>
       </c>
       <c r="R15" s="9">
         <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -9348,69 +9345,65 @@
       </c>
       <c r="T15" s="12" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D16" s="9">
         <v>1.5</v>
       </c>
-      <c r="D16" s="9">
-        <v>1.6</v>
-      </c>
       <c r="E16" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="26">
-        <v>1.2100000000000001E-7</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G16" s="70"/>
       <c r="H16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="26">
-        <v>9.9999999999999995E-7</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I16" s="26"/>
       <c r="J16" s="10">
         <f t="shared" si="0"/>
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
       <c r="K16" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="M16" s="31">
         <f t="shared" si="8"/>
-        <v>0.99999899999999997</v>
+        <v>1</v>
       </c>
       <c r="N16" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999899999999997</v>
+        <v>1</v>
       </c>
       <c r="O16" s="10">
         <f t="shared" si="10"/>
-        <v>1.9999999999999999E-6</v>
+        <v>0</v>
       </c>
       <c r="P16" s="10">
         <f t="shared" si="11"/>
-        <v>1.9999999999999999E-6</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="9">
         <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>9.9999999999999995E-7</v>
+        <v>3.3333333333333334E-8</v>
       </c>
       <c r="R16" s="9">
         <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S16" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="T16" s="12" t="b">
         <f t="shared" si="6"/>
@@ -9419,60 +9412,64 @@
     </row>
     <row r="17" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="9">
         <v>1.6</v>
       </c>
-      <c r="D17" s="9">
-        <v>2</v>
-      </c>
       <c r="E17" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="26"/>
+        <v>23</v>
+      </c>
+      <c r="G17" s="26">
+        <v>1.2100000000000001E-7</v>
+      </c>
       <c r="H17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="26"/>
+        <v>17</v>
+      </c>
+      <c r="I17" s="26">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="J17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K17" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>+III</v>
+        <v>+0</v>
       </c>
       <c r="M17" s="31">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.99999899999999997</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.99999899999999997</v>
       </c>
       <c r="O17" s="10">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="P17" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="Q17" s="9">
         <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="R17" s="9">
         <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S17" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R17)</f>
-        <v>+III</v>
+        <v>+0</v>
       </c>
       <c r="T17" s="12" t="b">
         <f t="shared" si="6"/>
@@ -9481,85 +9478,127 @@
     </row>
     <row r="18" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="D18" s="9">
         <v>2</v>
       </c>
-      <c r="D18" s="9">
-        <v>2.0680000000000001</v>
-      </c>
       <c r="E18" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="26"/>
+      <c r="J18" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>+III</v>
+      </c>
+      <c r="M18" s="31">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>3.3333333333333334E-8</v>
+      </c>
+      <c r="R18" s="9">
+        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S18" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
+        <v>+III</v>
+      </c>
+      <c r="T18" s="12" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="E19" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="10" t="str">
+      <c r="F19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="H19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="10" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="K18" s="32" t="str">
+      <c r="K19" s="32" t="str">
         <f t="shared" si="7"/>
         <v>D</v>
       </c>
-      <c r="M18" s="31" t="e">
+      <c r="M19" s="31" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N19" s="10">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="O18" s="10" t="e">
+      <c r="O19" s="10" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P19" s="10">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="9">
-        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="9">
-        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S18" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
-        <v>+III</v>
-      </c>
-      <c r="T18" s="12" t="b">
+      <c r="Q19" s="9">
+        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="9">
+        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S19" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R19)</f>
+        <v>+III</v>
+      </c>
+      <c r="T19" s="12" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="32"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="12"/>
     </row>
     <row r="20" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
@@ -9641,7 +9680,7 @@
       <c r="S23" s="9"/>
       <c r="T23" s="12"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -9681,44 +9720,64 @@
       <c r="S25" s="9"/>
       <c r="T25" s="12"/>
     </row>
-    <row r="26" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="34"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="17"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="M27" s="1"/>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="32"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="12"/>
+    </row>
+    <row r="27" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="34"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="17"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M28" s="1"/>
     </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M29" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G10:G14 G16:G26">
+  <conditionalFormatting sqref="G11:G15 G17:G27">
     <cfRule type="expression" dxfId="15" priority="5">
-      <formula>IF($E10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I26">
+  <conditionalFormatting sqref="I11:I27">
     <cfRule type="expression" dxfId="14" priority="4">
-      <formula>IF($H10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($H11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K26">
+  <conditionalFormatting sqref="K11:K27">
     <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -9736,7 +9795,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="6" operator="endsWith" id="{9FC208BF-EAC7-4689-9C69-B4C0AF97788A}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -9747,7 +9806,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="7" operator="endsWith" id="{C5FD292B-C2DC-4845-B28E-24E6E20098B8}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -9758,7 +9817,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="8" operator="endsWith" id="{108B8320-33E6-4019-B0C6-D42133630008}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -9769,7 +9828,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="9" operator="endsWith" id="{6D9F7B0D-8F82-4139-BF58-3DF997FB327D}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -9780,7 +9839,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="10" operator="containsText" id="{695ED08F-7F5E-4AA0-B9EC-1C679CD14FF4}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -9791,7 +9850,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="11" operator="containsText" id="{7A0DEDA9-62F6-4584-A60C-AC430DA6FB4A}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -9801,7 +9860,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K10:K26</xm:sqref>
+          <xm:sqref>K11:K27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9811,7 +9870,7 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E27:E42 F10:F26</xm:sqref>
+          <xm:sqref>E28:E43 F11:F27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/benchmarktests/testdefinitions/Benchmartktest_traject 30-4.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 30-4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1B06C5-317A-4EE6-BC31-1F648AF744BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD2091D-1781-49DF-ABF7-4A39B605CFCF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="4515" windowWidth="28800" windowHeight="15435" tabRatio="653" firstSheet="1" activeTab="3" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" tabRatio="653" firstSheet="1" activeTab="1" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="107">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -206,9 +206,6 @@
   </si>
   <si>
     <t>+0</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>-I</t>
@@ -395,7 +392,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,12 +438,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8EDA97"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,7 +635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -712,10 +703,9 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1665,19 +1655,19 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="53" t="s">
+      <c r="E2" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="54" t="s">
         <v>82</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -1685,7 +1675,7 @@
         <v>47</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>17</v>
@@ -1699,10 +1689,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>17</v>
@@ -1716,10 +1706,10 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>18</v>
@@ -1728,21 +1718,21 @@
         <v>17</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>18</v>
@@ -1750,16 +1740,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>18</v>
@@ -1767,10 +1757,10 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>18</v>
@@ -1784,16 +1774,16 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>18</v>
@@ -1801,16 +1791,16 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>18</v>
@@ -1818,10 +1808,10 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>18</v>
@@ -1835,10 +1825,10 @@
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>98</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>18</v>
@@ -1847,7 +1837,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1911,7 +1901,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>IFERROR(1-PRODUCT(G7:G12),"GR")</f>
@@ -1932,7 +1922,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1">
         <f>1-PRODUCT(H7:H12)</f>
@@ -1953,7 +1943,7 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1965,18 +1955,18 @@
         <v>38</v>
       </c>
       <c r="E6" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="H6" s="35" t="s">
         <v>76</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>STPH!C5</f>
@@ -1998,7 +1988,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="31" t="str">
         <f>STBI!C5</f>
@@ -2020,7 +2010,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="31" t="str">
         <f>GEKB!C5</f>
@@ -2042,7 +2032,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="31">
         <f>DA!C5</f>
@@ -2064,7 +2054,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="31" t="str">
         <f>STKWp!C5</f>
@@ -2086,7 +2076,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="31" t="str">
         <f>HTKW!C5</f>
@@ -2223,29 +2213,29 @@
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="69" t="s">
-        <v>103</v>
+      <c r="D2" s="68" t="s">
+        <v>102</v>
       </c>
       <c r="E2" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="G2" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="H2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="I2" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="J2" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="54" t="s">
         <v>71</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="54" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -2261,7 +2251,7 @@
       </c>
       <c r="E3" s="4" t="str">
         <f t="array" ref="E3">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B3,C3),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="array" ref="F3">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B3,C3),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -2269,7 +2259,7 @@
       </c>
       <c r="G3" s="4" t="str">
         <f t="array" ref="G3">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+I</v>
+        <v>-I</v>
       </c>
       <c r="H3" s="4" t="str">
         <f t="array" ref="H3">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B3,C3),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -2297,11 +2287,11 @@
       </c>
       <c r="D4" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+I</v>
+        <v>-I</v>
       </c>
       <c r="E4" s="9" t="str">
         <f t="array" ref="E4">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B4,C4),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="F4" s="9" t="str">
         <f t="array" ref="F4">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B4,C4),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -2309,7 +2299,7 @@
       </c>
       <c r="G4" s="9" t="str">
         <f t="array" ref="G4">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+I</v>
+        <v>-I</v>
       </c>
       <c r="H4" s="9" t="str">
         <f t="array" ref="H4">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B4,C4),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -2341,7 +2331,7 @@
       </c>
       <c r="E5" s="9" t="str">
         <f t="array" ref="E5">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B5,C5),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="F5" s="9" t="str">
         <f t="array" ref="F5">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B5,C5),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -2365,7 +2355,7 @@
       </c>
       <c r="K5" s="12" t="str">
         <f t="array" ref="K5">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B5,C5),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -2381,7 +2371,7 @@
       </c>
       <c r="E6" s="9" t="str">
         <f t="array" ref="E6">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B6,C6),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="F6" s="9" t="str">
         <f t="array" ref="F6">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B6,C6),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -2425,7 +2415,7 @@
       </c>
       <c r="F7" s="9" t="str">
         <f t="array" ref="F7">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B7,C7),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="G7" s="9" t="str">
         <f t="array" ref="G7">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
@@ -2465,7 +2455,7 @@
       </c>
       <c r="F8" s="9" t="str">
         <f t="array" ref="F8">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B8,C8),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="G8" s="9" t="str">
         <f t="array" ref="G8">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
@@ -2497,7 +2487,7 @@
       </c>
       <c r="D9" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="E9" s="9" t="str">
         <f t="array" ref="E9">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B9,C9),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -2505,11 +2495,11 @@
       </c>
       <c r="F9" s="9" t="str">
         <f t="array" ref="F9">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B9,C9),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="G9" s="9" t="str">
         <f t="array" ref="G9">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H9" s="9" t="str">
         <f t="array" ref="H9">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B9,C9),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -2517,11 +2507,11 @@
       </c>
       <c r="I9" s="9" t="str">
         <f t="array" ref="I9">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B9,C9),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J9" s="9" t="str">
         <f t="array" ref="J9">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B9,C9),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="K9" s="12" t="str">
         <f t="array" ref="K9">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B9,C9),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
@@ -2537,7 +2527,7 @@
       </c>
       <c r="D10" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E10" s="9" t="str">
         <f t="array" ref="E10">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B10,C10),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -2545,11 +2535,11 @@
       </c>
       <c r="F10" s="9" t="str">
         <f t="array" ref="F10">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B10,C10),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="G10" s="9" t="str">
         <f t="array" ref="G10">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H10" s="9" t="str">
         <f t="array" ref="H10">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B10,C10),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -2585,11 +2575,11 @@
       </c>
       <c r="F11" s="9" t="str">
         <f t="array" ref="F11">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B11,C11),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="G11" s="9" t="str">
         <f t="array" ref="G11">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H11" s="9" t="str">
         <f t="array" ref="H11">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B11,C11),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -2751,8 +2741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CBD9B7-2F4E-4E0F-B0DE-0C76068107FF}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2767,7 +2757,7 @@
         <v>50</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>37</v>
@@ -2799,7 +2789,7 @@
         <f>1/1000000</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="63" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="5">
@@ -2812,12 +2802,12 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="9">
         <v>2.0680000000000001</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="64" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="10">
@@ -2830,7 +2820,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="65" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="10">
@@ -2843,7 +2833,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="66" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="10">
@@ -2856,7 +2846,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="67" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="15">
@@ -2869,12 +2859,12 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" s="54" t="s">
         <v>36</v>
@@ -2885,8 +2875,8 @@
         <v>51</v>
       </c>
       <c r="E13" s="26">
-        <f>1/30*B3</f>
-        <v>3.3333333333333334E-8</v>
+        <f>1/1000*B3</f>
+        <v>1.0000000000000001E-9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2894,8 +2884,8 @@
         <v>52</v>
       </c>
       <c r="E14" s="26">
-        <f>1/10*B3</f>
-        <v>9.9999999999999995E-8</v>
+        <f>1/100*B3</f>
+        <v>1E-8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2903,8 +2893,8 @@
         <v>53</v>
       </c>
       <c r="E15" s="26">
-        <f>1/3*B3</f>
-        <v>3.333333333333333E-7</v>
+        <f>1/10*B3</f>
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2930,38 +2920,32 @@
         <v>56</v>
       </c>
       <c r="E18" s="26">
-        <f>3*B4</f>
-        <v>3.0000000000000001E-6</v>
+        <f>10*B4</f>
+        <v>9.9999999999999991E-6</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D19" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="26">
-        <f>10*B4</f>
-        <v>9.9999999999999991E-6</v>
+      <c r="E19" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="17"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D23" s="28"/>
@@ -3036,7 +3020,7 @@
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>17</v>
@@ -3071,7 +3055,7 @@
     </row>
     <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3082,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>3</v>
@@ -3131,14 +3115,14 @@
         <v>43</v>
       </c>
       <c r="U10" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" s="38" t="s">
         <v>60</v>
-      </c>
-      <c r="V10" s="38" t="s">
-        <v>61</v>
       </c>
       <c r="W10" s="4"/>
       <c r="X10" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y10" s="35"/>
     </row>
@@ -3183,7 +3167,7 @@
       </c>
       <c r="O11" s="30" t="str">
         <f t="shared" ref="O11:O14" si="3">IF(ISNUMBER($M11),W11,IF($X11,"D","ND"))</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="Q11" s="31">
         <f t="shared" ref="Q11:Q14" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
@@ -3203,15 +3187,15 @@
       </c>
       <c r="U11" s="9">
         <f t="array" ref="U11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.333333333333333E-7</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="V11" s="9">
         <f>IFERROR(MATCH($U11,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W11" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V11)</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="X11" s="12" t="b">
         <f>IF($E11="Ja",IF($I11="Ja",NOT(ISNUMBER($J11)),FALSE),FALSE)</f>
@@ -3259,7 +3243,7 @@
       </c>
       <c r="O12" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="Q12" s="31">
         <f t="shared" si="4"/>
@@ -3279,15 +3263,15 @@
       </c>
       <c r="U12" s="9">
         <f t="array" ref="U12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.333333333333333E-7</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="V12" s="9">
         <f>IFERROR(MATCH($U12,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W12" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V12)</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="X12" s="12" t="b">
         <f t="shared" ref="X12:X14" si="8">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
@@ -3431,7 +3415,7 @@
       </c>
       <c r="U14" s="9">
         <f t="array" ref="U14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="V14" s="9">
         <f>IFERROR(MATCH($U14,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
@@ -3952,8 +3936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFA30DD-EAF1-4973-B290-E12CB5036732}">
   <dimension ref="B2:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3981,7 +3965,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.25">
@@ -3994,7 +3978,7 @@
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>17</v>
@@ -4029,7 +4013,7 @@
     </row>
     <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4040,7 +4024,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>3</v>
@@ -4089,14 +4073,14 @@
         <v>43</v>
       </c>
       <c r="U10" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" s="38" t="s">
         <v>60</v>
-      </c>
-      <c r="V10" s="38" t="s">
-        <v>61</v>
       </c>
       <c r="W10" s="4"/>
       <c r="X10" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y10" s="35"/>
     </row>
@@ -4161,7 +4145,7 @@
       </c>
       <c r="U11" s="9">
         <f t="array" ref="U11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="V11" s="9">
         <f>IFERROR(MATCH($U11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -4293,7 +4277,7 @@
       </c>
       <c r="O13" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="Q13" s="31">
         <f t="shared" si="4"/>
@@ -4313,15 +4297,15 @@
       </c>
       <c r="U13" s="9">
         <f t="array" ref="U13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="V13" s="9">
         <f>IFERROR(MATCH($U13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W13" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V13)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="X13" s="12" t="b">
         <f t="shared" si="8"/>
@@ -4369,7 +4353,7 @@
       </c>
       <c r="O14" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="Q14" s="31">
         <f t="shared" si="4"/>
@@ -4389,15 +4373,15 @@
       </c>
       <c r="U14" s="9">
         <f t="array" ref="U14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="V14" s="9">
         <f>IFERROR(MATCH($U14,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W14" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V14)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="X14" s="12" t="b">
         <f t="shared" si="8"/>
@@ -4935,7 +4919,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -4948,7 +4932,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -4983,7 +4967,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5025,20 +5009,20 @@
         <v>40</v>
       </c>
       <c r="O10" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>80</v>
-      </c>
       <c r="Q10" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>60</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>61</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U10" s="35"/>
     </row>
@@ -5073,7 +5057,7 @@
       </c>
       <c r="K11" s="30" t="str">
         <f t="shared" ref="K11:K14" si="1">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
-        <v>+I</v>
+        <v>-I</v>
       </c>
       <c r="M11" s="31">
         <f t="shared" ref="M11" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
@@ -5093,15 +5077,15 @@
       </c>
       <c r="Q11" s="9">
         <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.333333333333333E-7</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="R11" s="9">
         <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S11" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R11)</f>
-        <v>+I</v>
+        <v>-I</v>
       </c>
       <c r="T11" s="12" t="b">
         <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
@@ -5159,7 +5143,7 @@
       </c>
       <c r="Q12" s="9">
         <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="R12" s="9">
         <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -5269,7 +5253,7 @@
       </c>
       <c r="K14" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M14" s="31">
         <f t="shared" si="5"/>
@@ -5289,15 +5273,15 @@
       </c>
       <c r="Q14" s="9">
         <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="R14" s="9">
         <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S14" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R14)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T14" s="12" t="b">
         <f t="shared" si="9"/>
@@ -6592,7 +6576,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -6605,7 +6589,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -6640,7 +6624,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6688,14 +6672,14 @@
         <v>43</v>
       </c>
       <c r="Q10" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>60</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>61</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U10" s="35"/>
     </row>
@@ -6745,7 +6729,7 @@
       </c>
       <c r="Q11" s="14">
         <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="R11" s="14">
         <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -6913,7 +6897,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -6926,7 +6910,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -6961,7 +6945,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7003,20 +6987,20 @@
         <v>40</v>
       </c>
       <c r="O10" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>80</v>
-      </c>
       <c r="Q10" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>60</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>61</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U10" s="35"/>
     </row>
@@ -7129,7 +7113,7 @@
       </c>
       <c r="Q12" s="9">
         <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>0</v>
       </c>
       <c r="R12" s="9">
         <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -7195,7 +7179,7 @@
       </c>
       <c r="Q13" s="9">
         <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="R13" s="9">
         <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -7257,7 +7241,7 @@
       </c>
       <c r="Q14" s="9">
         <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>0</v>
       </c>
       <c r="R14" s="9">
         <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -7323,7 +7307,7 @@
       </c>
       <c r="Q15" s="9">
         <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="R15" s="9">
         <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -7385,7 +7369,7 @@
       </c>
       <c r="Q16" s="9">
         <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>0</v>
       </c>
       <c r="R16" s="9">
         <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -7431,7 +7415,7 @@
       </c>
       <c r="K17" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M17" s="31">
         <f t="shared" si="8"/>
@@ -7451,15 +7435,15 @@
       </c>
       <c r="Q17" s="9">
         <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="R17" s="9">
         <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S17" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R17)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T17" s="12" t="b">
         <f t="shared" si="6"/>
@@ -7513,7 +7497,7 @@
       </c>
       <c r="Q18" s="9">
         <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>0</v>
       </c>
       <c r="R18" s="9">
         <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -7577,7 +7561,7 @@
       </c>
       <c r="Q19" s="9">
         <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>0</v>
       </c>
       <c r="R19" s="9">
         <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -7919,7 +7903,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -7932,7 +7916,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -7967,7 +7951,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8009,20 +7993,20 @@
         <v>40</v>
       </c>
       <c r="O10" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>80</v>
-      </c>
       <c r="Q10" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>60</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>61</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U10" s="35"/>
     </row>
@@ -8135,7 +8119,7 @@
       </c>
       <c r="Q12" s="9">
         <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="R12" s="9">
         <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8161,7 +8145,7 @@
         <v>0.6</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>21</v>
@@ -8199,7 +8183,7 @@
       </c>
       <c r="Q13" s="9">
         <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="R13" s="9">
         <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8261,7 +8245,7 @@
       </c>
       <c r="Q14" s="9">
         <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="R14" s="9">
         <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8287,7 +8271,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>21</v>
@@ -8325,7 +8309,7 @@
       </c>
       <c r="Q15" s="9">
         <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="R15" s="9">
         <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8387,7 +8371,7 @@
       </c>
       <c r="Q16" s="9">
         <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="R16" s="9">
         <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8433,7 +8417,7 @@
       </c>
       <c r="K17" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="M17" s="31">
         <f t="shared" si="2"/>
@@ -8453,7 +8437,7 @@
       </c>
       <c r="Q17" s="9">
         <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.0000000000000001E-6</v>
+        <v>9.9999999999999991E-6</v>
       </c>
       <c r="R17" s="9">
         <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8461,7 +8445,7 @@
       </c>
       <c r="S17" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R17)</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="T17" s="12" t="b">
         <f t="shared" si="6"/>
@@ -8515,7 +8499,7 @@
       </c>
       <c r="Q18" s="9">
         <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="R18" s="9">
         <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8581,7 +8565,7 @@
       </c>
       <c r="Q19" s="9">
         <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="R19" s="9">
         <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8923,7 +8907,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -8936,7 +8920,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -8971,7 +8955,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9013,20 +8997,20 @@
         <v>40</v>
       </c>
       <c r="O10" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>80</v>
-      </c>
       <c r="Q10" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>60</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>61</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U10" s="35"/>
     </row>
@@ -9079,7 +9063,7 @@
       </c>
       <c r="Q11" s="9">
         <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>0</v>
       </c>
       <c r="R11" s="9">
         <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -9141,7 +9125,7 @@
       </c>
       <c r="Q12" s="9">
         <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>0</v>
       </c>
       <c r="R12" s="9">
         <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -9187,7 +9171,7 @@
       </c>
       <c r="K13" s="32" t="str">
         <f t="shared" ref="K13:K19" si="7">IF(ISNUMBER($J13),S13,IF($T13,"D","ND"))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M13" s="31">
         <f t="shared" ref="M13:M19" si="8">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
@@ -9207,15 +9191,15 @@
       </c>
       <c r="Q13" s="9">
         <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="R13" s="9">
         <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S13" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R13)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T13" s="12" t="b">
         <f t="shared" si="6"/>
@@ -9269,7 +9253,7 @@
       </c>
       <c r="Q14" s="9">
         <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>0</v>
       </c>
       <c r="R14" s="9">
         <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -9364,7 +9348,7 @@
       <c r="F16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="70"/>
+      <c r="G16" s="69"/>
       <c r="H16" s="8" t="s">
         <v>18</v>
       </c>
@@ -9395,7 +9379,7 @@
       </c>
       <c r="Q16" s="9">
         <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>0</v>
       </c>
       <c r="R16" s="9">
         <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -9523,7 +9507,7 @@
       </c>
       <c r="Q18" s="9">
         <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <v>0</v>
       </c>
       <c r="R18" s="9">
         <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>

--- a/benchmarktests/testdefinitions/Benchmartktest_traject 30-4.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 30-4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD2091D-1781-49DF-ABF7-4A39B605CFCF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560DA8FF-F618-4563-92CC-B60B885D3882}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" tabRatio="653" firstSheet="1" activeTab="1" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="10" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="108">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>Lengte-effect</t>
+  </si>
+  <si>
+    <t>Gecombineerd (tussentijds)</t>
   </si>
 </sst>
 </file>
@@ -2194,51 +2197,55 @@
   <sheetPr>
     <tabColor rgb="FF9900FF"/>
   </sheetPr>
-  <dimension ref="B1:K45"/>
+  <dimension ref="B1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
       <c r="C2" s="14"/>
       <c r="D2" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="G2" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="H2" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="I2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="J2" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="K2" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="L2" s="54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -2246,39 +2253,43 @@
         <v>0.1</v>
       </c>
       <c r="D3" s="22" t="str">
-        <f t="shared" ref="D3:D11" si="0">IF(COUNTIF(E3:K3,"D")&gt;0,"D",IF(COUNTIF(E3:K3,"-III")&gt;0,"-III",IF(COUNTIF(E3:K3,"-II")&gt;0,"-II",IF(COUNTIF(E3:K3,"-I")&gt;0,"-I",IF(COUNTIF(E3:K3,"+0")&gt;0,"+0",IF(COUNTIF(E3:K3,"+I")&gt;0,"+I",IF(COUNTIF(E3:K3,"+II")&gt;0,"+II",IF(COUNTIF(E3:K3,"+III")&gt;0,"+III","ND"))))))))</f>
+        <f t="shared" ref="D3:D11" si="0">IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III","ND"))))))))</f>
         <v>D</v>
       </c>
-      <c r="E3" s="4" t="str">
-        <f t="array" ref="E3">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B3,C3),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E3" s="22" t="str">
+        <f t="shared" ref="E3:E11" si="1">IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III","ND")))))))</f>
+        <v>-I</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f t="array" ref="F3">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B3,C3),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+0</v>
       </c>
-      <c r="F3" s="4" t="str">
-        <f t="array" ref="F3">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B3,C3),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+      <c r="G3" s="4" t="str">
+        <f t="array" ref="G3">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B3,C3),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="G3" s="4" t="str">
-        <f t="array" ref="G3">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+      <c r="H3" s="4" t="str">
+        <f t="array" ref="H3">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H3" s="4" t="str">
-        <f t="array" ref="H3">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B3,C3),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+      <c r="I3" s="4" t="str">
+        <f t="array" ref="I3">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B3,C3),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="I3" s="4" t="str">
-        <f t="array" ref="I3">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B3,C3),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+      <c r="J3" s="4" t="str">
+        <f t="array" ref="J3">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B3,C3),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>D</v>
       </c>
-      <c r="J3" s="4" t="str">
-        <f t="array" ref="J3">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B3,C3),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+      <c r="K3" s="4" t="str">
+        <f t="array" ref="K3">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B3,C3),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>D</v>
       </c>
-      <c r="K3" s="7" t="str">
-        <f t="array" ref="K3">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B3,C3),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+      <c r="L3" s="7" t="str">
+        <f t="array" ref="L3">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B3,C3),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
         <v>0.1</v>
       </c>
@@ -2289,36 +2300,40 @@
         <f t="shared" si="0"/>
         <v>-I</v>
       </c>
-      <c r="E4" s="9" t="str">
-        <f t="array" ref="E4">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B4,C4),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E4" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-I</v>
+      </c>
+      <c r="F4" s="9" t="str">
+        <f t="array" ref="F4">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B4,C4),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+0</v>
       </c>
-      <c r="F4" s="9" t="str">
-        <f t="array" ref="F4">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B4,C4),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+      <c r="G4" s="9" t="str">
+        <f t="array" ref="G4">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B4,C4),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="G4" s="9" t="str">
-        <f t="array" ref="G4">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+      <c r="H4" s="9" t="str">
+        <f t="array" ref="H4">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H4" s="9" t="str">
-        <f t="array" ref="H4">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B4,C4),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+      <c r="I4" s="9" t="str">
+        <f t="array" ref="I4">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B4,C4),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="I4" s="9" t="str">
-        <f t="array" ref="I4">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B4,C4),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+      <c r="J4" s="9" t="str">
+        <f t="array" ref="J4">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B4,C4),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="J4" s="9" t="str">
-        <f t="array" ref="J4">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B4,C4),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+      <c r="K4" s="9" t="str">
+        <f t="array" ref="K4">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B4,C4),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="K4" s="12" t="str">
-        <f t="array" ref="K4">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B4,C4),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+      <c r="L4" s="12" t="str">
+        <f t="array" ref="L4">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B4,C4),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>0.5</v>
       </c>
@@ -2329,36 +2344,40 @@
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="E5" s="9" t="str">
-        <f t="array" ref="E5">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B5,C5),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E5" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F5" s="9" t="str">
-        <f t="array" ref="F5">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B5,C5),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F5">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B5,C5),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>+0</v>
+      </c>
+      <c r="G5" s="9" t="str">
+        <f t="array" ref="G5">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B5,C5),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>D</v>
       </c>
-      <c r="G5" s="9" t="str">
-        <f t="array" ref="G5">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+      <c r="H5" s="9" t="str">
+        <f t="array" ref="H5">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="H5" s="9" t="str">
-        <f t="array" ref="H5">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B5,C5),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+      <c r="I5" s="9" t="str">
+        <f t="array" ref="I5">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B5,C5),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="I5" s="9" t="str">
-        <f t="array" ref="I5">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B5,C5),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+      <c r="J5" s="9" t="str">
+        <f t="array" ref="J5">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B5,C5),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="J5" s="9" t="str">
-        <f t="array" ref="J5">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B5,C5),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+      <c r="K5" s="9" t="str">
+        <f t="array" ref="K5">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B5,C5),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="K5" s="12" t="str">
-        <f t="array" ref="K5">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B5,C5),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+      <c r="L5" s="12" t="str">
+        <f t="array" ref="L5">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B5,C5),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>0.6</v>
       </c>
@@ -2369,36 +2388,40 @@
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="E6" s="9" t="str">
-        <f t="array" ref="E6">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B6,C6),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E6" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F6" s="9" t="str">
-        <f t="array" ref="F6">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B6,C6),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F6">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B6,C6),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>+0</v>
+      </c>
+      <c r="G6" s="9" t="str">
+        <f t="array" ref="G6">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B6,C6),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>D</v>
       </c>
-      <c r="G6" s="9" t="str">
-        <f t="array" ref="G6">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+      <c r="H6" s="9" t="str">
+        <f t="array" ref="H6">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="H6" s="9" t="str">
-        <f t="array" ref="H6">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B6,C6),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+      <c r="I6" s="9" t="str">
+        <f t="array" ref="I6">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B6,C6),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="I6" s="9" t="str">
-        <f t="array" ref="I6">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B6,C6),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+      <c r="J6" s="9" t="str">
+        <f t="array" ref="J6">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B6,C6),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="J6" s="9" t="str">
-        <f t="array" ref="J6">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B6,C6),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+      <c r="K6" s="9" t="str">
+        <f t="array" ref="K6">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B6,C6),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="K6" s="12" t="str">
-        <f t="array" ref="K6">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B6,C6),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+      <c r="L6" s="12" t="str">
+        <f t="array" ref="L6">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B6,C6),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>1</v>
       </c>
@@ -2409,36 +2432,40 @@
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="E7" s="9" t="str">
-        <f t="array" ref="E7">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B7,C7),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E7" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+I</v>
+      </c>
+      <c r="F7" s="9" t="str">
+        <f t="array" ref="F7">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B7,C7),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>D</v>
       </c>
-      <c r="F7" s="9" t="str">
-        <f t="array" ref="F7">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B7,C7),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+      <c r="G7" s="9" t="str">
+        <f t="array" ref="G7">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B7,C7),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+I</v>
       </c>
-      <c r="G7" s="9" t="str">
-        <f t="array" ref="G7">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+      <c r="H7" s="9" t="str">
+        <f t="array" ref="H7">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>D</v>
       </c>
-      <c r="H7" s="9" t="str">
-        <f t="array" ref="H7">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B7,C7),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+      <c r="I7" s="9" t="str">
+        <f t="array" ref="I7">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B7,C7),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="I7" s="9" t="str">
-        <f t="array" ref="I7">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B7,C7),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+      <c r="J7" s="9" t="str">
+        <f t="array" ref="J7">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B7,C7),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="J7" s="9" t="str">
-        <f t="array" ref="J7">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B7,C7),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+      <c r="K7" s="9" t="str">
+        <f t="array" ref="K7">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B7,C7),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="K7" s="12" t="str">
-        <f t="array" ref="K7">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B7,C7),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+      <c r="L7" s="12" t="str">
+        <f t="array" ref="L7">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B7,C7),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>D</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -2449,36 +2476,40 @@
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="E8" s="9" t="str">
-        <f t="array" ref="E8">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B8,C8),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E8" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+I</v>
+      </c>
+      <c r="F8" s="9" t="str">
+        <f t="array" ref="F8">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B8,C8),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>D</v>
       </c>
-      <c r="F8" s="9" t="str">
-        <f t="array" ref="F8">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B8,C8),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+      <c r="G8" s="9" t="str">
+        <f t="array" ref="G8">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B8,C8),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+I</v>
       </c>
-      <c r="G8" s="9" t="str">
-        <f t="array" ref="G8">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+      <c r="H8" s="9" t="str">
+        <f t="array" ref="H8">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>D</v>
       </c>
-      <c r="H8" s="9" t="str">
-        <f t="array" ref="H8">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B8,C8),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+      <c r="I8" s="9" t="str">
+        <f t="array" ref="I8">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B8,C8),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="I8" s="9" t="str">
-        <f t="array" ref="I8">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B8,C8),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+      <c r="J8" s="9" t="str">
+        <f t="array" ref="J8">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B8,C8),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="J8" s="9" t="str">
-        <f t="array" ref="J8">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B8,C8),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+      <c r="K8" s="9" t="str">
+        <f t="array" ref="K8">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B8,C8),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="K8" s="12" t="str">
-        <f t="array" ref="K8">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B8,C8),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+      <c r="L8" s="12" t="str">
+        <f t="array" ref="L8">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B8,C8),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>1.5</v>
       </c>
@@ -2489,36 +2520,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E9" s="9" t="str">
-        <f t="array" ref="E9">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B9,C9),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E9" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-II</v>
+      </c>
+      <c r="F9" s="9" t="str">
+        <f t="array" ref="F9">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B9,C9),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="F9" s="9" t="str">
-        <f t="array" ref="F9">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B9,C9),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+      <c r="G9" s="9" t="str">
+        <f t="array" ref="G9">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B9,C9),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+I</v>
       </c>
-      <c r="G9" s="9" t="str">
-        <f t="array" ref="G9">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+      <c r="H9" s="9" t="str">
+        <f t="array" ref="H9">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H9" s="9" t="str">
-        <f t="array" ref="H9">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B9,C9),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+      <c r="I9" s="9" t="str">
+        <f t="array" ref="I9">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B9,C9),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="I9" s="9" t="str">
-        <f t="array" ref="I9">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B9,C9),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+      <c r="J9" s="9" t="str">
+        <f t="array" ref="J9">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B9,C9),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="J9" s="9" t="str">
-        <f t="array" ref="J9">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B9,C9),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+      <c r="K9" s="9" t="str">
+        <f t="array" ref="K9">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B9,C9),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>-II</v>
       </c>
-      <c r="K9" s="12" t="str">
-        <f t="array" ref="K9">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B9,C9),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+      <c r="L9" s="12" t="str">
+        <f t="array" ref="L9">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B9,C9),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+0</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <v>1.6</v>
       </c>
@@ -2529,36 +2564,40 @@
         <f t="shared" si="0"/>
         <v>+I</v>
       </c>
-      <c r="E10" s="9" t="str">
-        <f t="array" ref="E10">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B10,C10),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E10" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+I</v>
+      </c>
+      <c r="F10" s="9" t="str">
+        <f t="array" ref="F10">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B10,C10),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="F10" s="9" t="str">
-        <f t="array" ref="F10">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B10,C10),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+      <c r="G10" s="9" t="str">
+        <f t="array" ref="G10">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B10,C10),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+I</v>
       </c>
-      <c r="G10" s="9" t="str">
-        <f t="array" ref="G10">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+      <c r="H10" s="9" t="str">
+        <f t="array" ref="H10">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H10" s="9" t="str">
-        <f t="array" ref="H10">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B10,C10),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+      <c r="I10" s="9" t="str">
+        <f t="array" ref="I10">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B10,C10),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="I10" s="9" t="str">
-        <f t="array" ref="I10">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B10,C10),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+      <c r="J10" s="9" t="str">
+        <f t="array" ref="J10">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B10,C10),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="J10" s="9" t="str">
-        <f t="array" ref="J10">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B10,C10),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+      <c r="K10" s="9" t="str">
+        <f t="array" ref="K10">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B10,C10),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="K10" s="12" t="str">
-        <f t="array" ref="K10">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B10,C10),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+      <c r="L10" s="12" t="str">
+        <f t="array" ref="L10">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B10,C10),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <v>2</v>
       </c>
@@ -2569,94 +2608,103 @@
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="E11" s="9" t="str">
-        <f t="array" ref="E11">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B11,C11),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E11" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+I</v>
+      </c>
+      <c r="F11" s="9" t="str">
+        <f t="array" ref="F11">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B11,C11),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="F11" s="9" t="str">
-        <f t="array" ref="F11">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B11,C11),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+      <c r="G11" s="9" t="str">
+        <f t="array" ref="G11">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B11,C11),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+I</v>
       </c>
-      <c r="G11" s="9" t="str">
-        <f t="array" ref="G11">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+      <c r="H11" s="9" t="str">
+        <f t="array" ref="H11">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H11" s="9" t="str">
-        <f t="array" ref="H11">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B11,C11),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+      <c r="I11" s="9" t="str">
+        <f t="array" ref="I11">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B11,C11),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="I11" s="9" t="str">
-        <f t="array" ref="I11">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B11,C11),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+      <c r="J11" s="9" t="str">
+        <f t="array" ref="J11">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B11,C11),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="J11" s="9" t="str">
-        <f t="array" ref="J11">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B11,C11),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+      <c r="K11" s="9" t="str">
+        <f t="array" ref="K11">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B11,C11),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="K11" s="12" t="str">
-        <f t="array" ref="K11">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B11,C11),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+      <c r="L11" s="12" t="str">
+        <f t="array" ref="L11">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B11,C11),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>D</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="23"/>
-      <c r="E12" s="9"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="9"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="23"/>
-      <c r="E13" s="9"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="9"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="23"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="9"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="23"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="9"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="24"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="17"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
@@ -2741,7 +2789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CBD9B7-2F4E-4E0F-B0DE-0C76068107FF}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/benchmarktests/testdefinitions/Benchmartktest_traject 30-4.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 30-4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560DA8FF-F618-4563-92CC-B60B885D3882}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90764ED-06FC-413A-B425-7F43B19B25DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="10" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
@@ -2200,7 +2200,7 @@
   <dimension ref="B1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D3" sqref="D3:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2253,11 +2253,11 @@
         <v>0.1</v>
       </c>
       <c r="D3" s="22" t="str">
-        <f t="shared" ref="D3:D11" si="0">IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III","ND"))))))))</f>
+        <f>IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>D</v>
       </c>
       <c r="E3" s="22" t="str">
-        <f t="shared" ref="E3:E11" si="1">IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III","ND")))))))</f>
+        <f>IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-I</v>
       </c>
       <c r="F3" s="4" t="str">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="I3" s="4" t="str">
         <f t="array" ref="I3">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B3,C3),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J3" s="4" t="str">
         <f t="array" ref="J3">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B3,C3),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2297,11 +2297,11 @@
         <v>0.5</v>
       </c>
       <c r="D4" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F4:L4,"D")&gt;0,"D",IF(COUNTIF(F4:L4,"-III")&gt;0,"-III",IF(COUNTIF(F4:L4,"-II")&gt;0,"-II",IF(COUNTIF(F4:L4,"-I")&gt;0,"-I",IF(COUNTIF(F4:L4,"+0")&gt;0,"+0",IF(COUNTIF(F4:L4,"+I")&gt;0,"+I",IF(COUNTIF(F4:L4,"+II")&gt;0,"+II",IF(COUNTIF(F4:L4,"+III")&gt;0,"+III",IF(COUNTIF(F4:L4,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-I</v>
       </c>
       <c r="E4" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F4:L4,"-III")&gt;0,"-III",IF(COUNTIF(F4:L4,"-II")&gt;0,"-II",IF(COUNTIF(F4:L4,"-I")&gt;0,"-I",IF(COUNTIF(F4:L4,"+0")&gt;0,"+0",IF(COUNTIF(F4:L4,"+I")&gt;0,"+I",IF(COUNTIF(F4:L4,"+II")&gt;0,"+II",IF(COUNTIF(F4:L4,"+III")&gt;0,"+III",IF(COUNTIF(F4:L4,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-I</v>
       </c>
       <c r="F4" s="9" t="str">
@@ -2318,19 +2318,19 @@
       </c>
       <c r="I4" s="9" t="str">
         <f t="array" ref="I4">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B4,C4),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J4" s="9" t="str">
         <f t="array" ref="J4">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B4,C4),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K4" s="9" t="str">
         <f t="array" ref="K4">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B4,C4),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L4" s="12" t="str">
         <f t="array" ref="L4">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B4,C4),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -2341,11 +2341,11 @@
         <v>0.6</v>
       </c>
       <c r="D5" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F5:L5,"D")&gt;0,"D",IF(COUNTIF(F5:L5,"-III")&gt;0,"-III",IF(COUNTIF(F5:L5,"-II")&gt;0,"-II",IF(COUNTIF(F5:L5,"-I")&gt;0,"-I",IF(COUNTIF(F5:L5,"+0")&gt;0,"+0",IF(COUNTIF(F5:L5,"+I")&gt;0,"+I",IF(COUNTIF(F5:L5,"+II")&gt;0,"+II",IF(COUNTIF(F5:L5,"+III")&gt;0,"+III",IF(COUNTIF(F5:L5,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>D</v>
       </c>
       <c r="E5" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F5:L5,"-III")&gt;0,"-III",IF(COUNTIF(F5:L5,"-II")&gt;0,"-II",IF(COUNTIF(F5:L5,"-I")&gt;0,"-I",IF(COUNTIF(F5:L5,"+0")&gt;0,"+0",IF(COUNTIF(F5:L5,"+I")&gt;0,"+I",IF(COUNTIF(F5:L5,"+II")&gt;0,"+II",IF(COUNTIF(F5:L5,"+III")&gt;0,"+III",IF(COUNTIF(F5:L5,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F5" s="9" t="str">
@@ -2358,11 +2358,11 @@
       </c>
       <c r="H5" s="9" t="str">
         <f t="array" ref="H5">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I5" s="9" t="str">
         <f t="array" ref="I5">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B5,C5),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J5" s="9" t="str">
         <f t="array" ref="J5">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B5,C5),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2385,11 +2385,11 @@
         <v>1</v>
       </c>
       <c r="D6" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F6:L6,"D")&gt;0,"D",IF(COUNTIF(F6:L6,"-III")&gt;0,"-III",IF(COUNTIF(F6:L6,"-II")&gt;0,"-II",IF(COUNTIF(F6:L6,"-I")&gt;0,"-I",IF(COUNTIF(F6:L6,"+0")&gt;0,"+0",IF(COUNTIF(F6:L6,"+I")&gt;0,"+I",IF(COUNTIF(F6:L6,"+II")&gt;0,"+II",IF(COUNTIF(F6:L6,"+III")&gt;0,"+III",IF(COUNTIF(F6:L6,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>D</v>
       </c>
       <c r="E6" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F6:L6,"-III")&gt;0,"-III",IF(COUNTIF(F6:L6,"-II")&gt;0,"-II",IF(COUNTIF(F6:L6,"-I")&gt;0,"-I",IF(COUNTIF(F6:L6,"+0")&gt;0,"+0",IF(COUNTIF(F6:L6,"+I")&gt;0,"+I",IF(COUNTIF(F6:L6,"+II")&gt;0,"+II",IF(COUNTIF(F6:L6,"+III")&gt;0,"+III",IF(COUNTIF(F6:L6,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F6" s="9" t="str">
@@ -2402,23 +2402,23 @@
       </c>
       <c r="H6" s="9" t="str">
         <f t="array" ref="H6">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I6" s="9" t="str">
         <f t="array" ref="I6">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B6,C6),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J6" s="9" t="str">
         <f t="array" ref="J6">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B6,C6),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K6" s="9" t="str">
         <f t="array" ref="K6">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B6,C6),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L6" s="12" t="str">
         <f t="array" ref="L6">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B6,C6),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -2429,11 +2429,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D7" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F7:L7,"D")&gt;0,"D",IF(COUNTIF(F7:L7,"-III")&gt;0,"-III",IF(COUNTIF(F7:L7,"-II")&gt;0,"-II",IF(COUNTIF(F7:L7,"-I")&gt;0,"-I",IF(COUNTIF(F7:L7,"+0")&gt;0,"+0",IF(COUNTIF(F7:L7,"+I")&gt;0,"+I",IF(COUNTIF(F7:L7,"+II")&gt;0,"+II",IF(COUNTIF(F7:L7,"+III")&gt;0,"+III",IF(COUNTIF(F7:L7,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>D</v>
       </c>
       <c r="E7" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F7:L7,"-III")&gt;0,"-III",IF(COUNTIF(F7:L7,"-II")&gt;0,"-II",IF(COUNTIF(F7:L7,"-I")&gt;0,"-I",IF(COUNTIF(F7:L7,"+0")&gt;0,"+0",IF(COUNTIF(F7:L7,"+I")&gt;0,"+I",IF(COUNTIF(F7:L7,"+II")&gt;0,"+II",IF(COUNTIF(F7:L7,"+III")&gt;0,"+III",IF(COUNTIF(F7:L7,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F7" s="9" t="str">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="I7" s="9" t="str">
         <f t="array" ref="I7">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B7,C7),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J7" s="9" t="str">
         <f t="array" ref="J7">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B7,C7),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2473,11 +2473,11 @@
         <v>1.5</v>
       </c>
       <c r="D8" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F8:L8,"D")&gt;0,"D",IF(COUNTIF(F8:L8,"-III")&gt;0,"-III",IF(COUNTIF(F8:L8,"-II")&gt;0,"-II",IF(COUNTIF(F8:L8,"-I")&gt;0,"-I",IF(COUNTIF(F8:L8,"+0")&gt;0,"+0",IF(COUNTIF(F8:L8,"+I")&gt;0,"+I",IF(COUNTIF(F8:L8,"+II")&gt;0,"+II",IF(COUNTIF(F8:L8,"+III")&gt;0,"+III",IF(COUNTIF(F8:L8,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>D</v>
       </c>
       <c r="E8" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F8:L8,"-III")&gt;0,"-III",IF(COUNTIF(F8:L8,"-II")&gt;0,"-II",IF(COUNTIF(F8:L8,"-I")&gt;0,"-I",IF(COUNTIF(F8:L8,"+0")&gt;0,"+0",IF(COUNTIF(F8:L8,"+I")&gt;0,"+I",IF(COUNTIF(F8:L8,"+II")&gt;0,"+II",IF(COUNTIF(F8:L8,"+III")&gt;0,"+III",IF(COUNTIF(F8:L8,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F8" s="9" t="str">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="I8" s="9" t="str">
         <f t="array" ref="I8">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B8,C8),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J8" s="9" t="str">
         <f t="array" ref="J8">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B8,C8),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K8" s="9" t="str">
         <f t="array" ref="K8">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B8,C8),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L8" s="12" t="str">
         <f t="array" ref="L8">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B8,C8),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -2517,11 +2517,11 @@
         <v>1.6</v>
       </c>
       <c r="D9" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F9:L9,"D")&gt;0,"D",IF(COUNTIF(F9:L9,"-III")&gt;0,"-III",IF(COUNTIF(F9:L9,"-II")&gt;0,"-II",IF(COUNTIF(F9:L9,"-I")&gt;0,"-I",IF(COUNTIF(F9:L9,"+0")&gt;0,"+0",IF(COUNTIF(F9:L9,"+I")&gt;0,"+I",IF(COUNTIF(F9:L9,"+II")&gt;0,"+II",IF(COUNTIF(F9:L9,"+III")&gt;0,"+III",IF(COUNTIF(F9:L9,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E9" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F9:L9,"-III")&gt;0,"-III",IF(COUNTIF(F9:L9,"-II")&gt;0,"-II",IF(COUNTIF(F9:L9,"-I")&gt;0,"-I",IF(COUNTIF(F9:L9,"+0")&gt;0,"+0",IF(COUNTIF(F9:L9,"+I")&gt;0,"+I",IF(COUNTIF(F9:L9,"+II")&gt;0,"+II",IF(COUNTIF(F9:L9,"+III")&gt;0,"+III",IF(COUNTIF(F9:L9,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F9" s="9" t="str">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="I9" s="9" t="str">
         <f t="array" ref="I9">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B9,C9),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J9" s="9" t="str">
         <f t="array" ref="J9">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B9,C9),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2561,11 +2561,11 @@
         <v>2</v>
       </c>
       <c r="D10" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F10:L10,"D")&gt;0,"D",IF(COUNTIF(F10:L10,"-III")&gt;0,"-III",IF(COUNTIF(F10:L10,"-II")&gt;0,"-II",IF(COUNTIF(F10:L10,"-I")&gt;0,"-I",IF(COUNTIF(F10:L10,"+0")&gt;0,"+0",IF(COUNTIF(F10:L10,"+I")&gt;0,"+I",IF(COUNTIF(F10:L10,"+II")&gt;0,"+II",IF(COUNTIF(F10:L10,"+III")&gt;0,"+III",IF(COUNTIF(F10:L10,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E10" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F10:L10,"-III")&gt;0,"-III",IF(COUNTIF(F10:L10,"-II")&gt;0,"-II",IF(COUNTIF(F10:L10,"-I")&gt;0,"-I",IF(COUNTIF(F10:L10,"+0")&gt;0,"+0",IF(COUNTIF(F10:L10,"+I")&gt;0,"+I",IF(COUNTIF(F10:L10,"+II")&gt;0,"+II",IF(COUNTIF(F10:L10,"+III")&gt;0,"+III",IF(COUNTIF(F10:L10,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F10" s="9" t="str">
@@ -2582,19 +2582,19 @@
       </c>
       <c r="I10" s="9" t="str">
         <f t="array" ref="I10">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B10,C10),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J10" s="9" t="str">
         <f t="array" ref="J10">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B10,C10),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K10" s="9" t="str">
         <f t="array" ref="K10">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B10,C10),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L10" s="12" t="str">
         <f t="array" ref="L10">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B10,C10),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -2605,11 +2605,11 @@
         <v>2.0680000000000001</v>
       </c>
       <c r="D11" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F11:L11,"D")&gt;0,"D",IF(COUNTIF(F11:L11,"-III")&gt;0,"-III",IF(COUNTIF(F11:L11,"-II")&gt;0,"-II",IF(COUNTIF(F11:L11,"-I")&gt;0,"-I",IF(COUNTIF(F11:L11,"+0")&gt;0,"+0",IF(COUNTIF(F11:L11,"+I")&gt;0,"+I",IF(COUNTIF(F11:L11,"+II")&gt;0,"+II",IF(COUNTIF(F11:L11,"+III")&gt;0,"+III",IF(COUNTIF(F11:L11,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>D</v>
       </c>
       <c r="E11" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F11:L11,"-III")&gt;0,"-III",IF(COUNTIF(F11:L11,"-II")&gt;0,"-II",IF(COUNTIF(F11:L11,"-I")&gt;0,"-I",IF(COUNTIF(F11:L11,"+0")&gt;0,"+0",IF(COUNTIF(F11:L11,"+I")&gt;0,"+I",IF(COUNTIF(F11:L11,"+II")&gt;0,"+II",IF(COUNTIF(F11:L11,"+III")&gt;0,"+III",IF(COUNTIF(F11:L11,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F11" s="9" t="str">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="I11" s="9" t="str">
         <f t="array" ref="I11">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B11,C11),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J11" s="9" t="str">
         <f t="array" ref="J11">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B11,C11),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -3027,7 +3027,7 @@
   <dimension ref="B2:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="O11" sqref="O11:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3214,11 +3214,11 @@
         <v>1.6666666666666665</v>
       </c>
       <c r="O11" s="30" t="str">
-        <f t="shared" ref="O11:O14" si="3">IF(ISNUMBER($M11),W11,IF($X11,"D","ND"))</f>
+        <f>IF(E11="Nee","NR",IF(ISNUMBER($M11),W11,IF($X11,"D","ND")))</f>
         <v>+0</v>
       </c>
       <c r="Q11" s="31">
-        <f t="shared" ref="Q11:Q14" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
+        <f t="shared" ref="Q11:Q14" si="3">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
         <v>0.99999989354151886</v>
       </c>
       <c r="R11" s="10">
@@ -3226,7 +3226,7 @@
         <v>0.99999989354151886</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" ref="S11:S14" si="5">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
+        <f t="shared" ref="S11:S14" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
         <v>1.8459900638750886E-6</v>
       </c>
       <c r="T11" s="10">
@@ -3290,23 +3290,23 @@
         <v>1.6666666666666665</v>
       </c>
       <c r="O12" s="32" t="str">
+        <f>IF(E12="Nee","NR",IF(ISNUMBER($M12),W12,IF($X12,"D","ND")))</f>
+        <v>+0</v>
+      </c>
+      <c r="Q12" s="31">
         <f t="shared" si="3"/>
-        <v>+0</v>
-      </c>
-      <c r="Q12" s="31">
+        <v>0.99999989366666664</v>
+      </c>
+      <c r="R12" s="10">
+        <f t="shared" ref="R12:R14" si="5">IF(M12="-",1,Q12)</f>
+        <v>0.99999989366666664</v>
+      </c>
+      <c r="S12" s="10">
         <f t="shared" si="4"/>
-        <v>0.99999989366666664</v>
-      </c>
-      <c r="R12" s="10">
-        <f t="shared" ref="R12:R14" si="6">IF(M12="-",1,Q12)</f>
-        <v>0.99999989366666664</v>
-      </c>
-      <c r="S12" s="10">
-        <f t="shared" si="5"/>
         <v>1.8438199999999999E-6</v>
       </c>
       <c r="T12" s="10">
-        <f t="shared" ref="T12:T14" si="7">IF(L12="-",0,S12)</f>
+        <f t="shared" ref="T12:T14" si="6">IF(L12="-",0,S12)</f>
         <v>1.8438199999999999E-6</v>
       </c>
       <c r="U12" s="9">
@@ -3322,7 +3322,7 @@
         <v>+0</v>
       </c>
       <c r="X12" s="12" t="b">
-        <f t="shared" ref="X12:X14" si="8">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
+        <f t="shared" ref="X12:X14" si="7">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -3366,23 +3366,23 @@
         <v>-</v>
       </c>
       <c r="O13" s="32" t="str">
+        <f>IF(E13="Nee","NR",IF(ISNUMBER($M13),W13,IF($X13,"D","ND")))</f>
+        <v>D</v>
+      </c>
+      <c r="Q13" s="31" t="e">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="Q13" s="31" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R13" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S13" s="10" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R13" s="10">
+      <c r="T13" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S13" s="10" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T13" s="10">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U13" s="9">
@@ -3398,7 +3398,7 @@
         <v>+III</v>
       </c>
       <c r="X13" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -3442,23 +3442,23 @@
         <v>1.7573333333333334</v>
       </c>
       <c r="O14" s="32" t="str">
+        <f>IF(E14="Nee","NR",IF(ISNUMBER($M14),W14,IF($X14,"D","ND")))</f>
+        <v>+III</v>
+      </c>
+      <c r="Q14" s="31">
         <f t="shared" si="3"/>
-        <v>+III</v>
-      </c>
-      <c r="Q14" s="31">
+        <v>0.99999999999999822</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999822</v>
+      </c>
+      <c r="S14" s="10">
         <f t="shared" si="4"/>
-        <v>0.99999999999999822</v>
-      </c>
-      <c r="R14" s="10">
+        <v>2.8900000000000002E-14</v>
+      </c>
+      <c r="T14" s="10">
         <f t="shared" si="6"/>
-        <v>0.99999999999999822</v>
-      </c>
-      <c r="S14" s="10">
-        <f t="shared" si="5"/>
-        <v>2.8900000000000002E-14</v>
-      </c>
-      <c r="T14" s="10">
-        <f t="shared" si="7"/>
         <v>2.8900000000000002E-14</v>
       </c>
       <c r="U14" s="9">
@@ -3474,7 +3474,7 @@
         <v>+III</v>
       </c>
       <c r="X14" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3985,7 +3985,7 @@
   <dimension ref="B2:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="O11" sqref="O11:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4172,11 +4172,11 @@
         <v>1.33</v>
       </c>
       <c r="O11" s="30" t="str">
-        <f t="shared" ref="O11:O14" si="3">IF(ISNUMBER($M11),W11,IF($X11,"D","ND"))</f>
+        <f>IF(E11="Nee","NR",IF(ISNUMBER($M11),W11,IF($X11,"D","ND")))</f>
         <v>+III</v>
       </c>
       <c r="Q11" s="31">
-        <f t="shared" ref="Q11:Q14" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
+        <f t="shared" ref="Q11:Q14" si="3">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
         <v>0.99999999986699994</v>
       </c>
       <c r="R11" s="10">
@@ -4184,7 +4184,7 @@
         <v>0.99999999986699994</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" ref="S11:S14" si="5">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
+        <f t="shared" ref="S11:S14" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
         <v>1.4800000000000001E-9</v>
       </c>
       <c r="T11" s="10">
@@ -4248,23 +4248,23 @@
         <v>-</v>
       </c>
       <c r="O12" s="32" t="str">
+        <f>IF(E12="Nee","NR",IF(ISNUMBER($M12),W12,IF($X12,"D","ND")))</f>
+        <v>D</v>
+      </c>
+      <c r="Q12" s="31" t="e">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="Q12" s="31" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R12" s="10">
+        <f t="shared" ref="R12:R14" si="5">IF(M12="-",1,Q12)</f>
+        <v>1</v>
+      </c>
+      <c r="S12" s="10" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R12" s="10">
-        <f t="shared" ref="R12:R14" si="6">IF(M12="-",1,Q12)</f>
-        <v>1</v>
-      </c>
-      <c r="S12" s="10" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="T12" s="10">
-        <f t="shared" ref="T12:T14" si="7">IF(L12="-",0,S12)</f>
+        <f t="shared" ref="T12:T14" si="6">IF(L12="-",0,S12)</f>
         <v>0</v>
       </c>
       <c r="U12" s="9">
@@ -4280,7 +4280,7 @@
         <v>+III</v>
       </c>
       <c r="X12" s="12" t="b">
-        <f t="shared" ref="X12:X14" si="8">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
+        <f t="shared" ref="X12:X14" si="7">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -4324,23 +4324,23 @@
         <v>1.33</v>
       </c>
       <c r="O13" s="32" t="str">
+        <f>IF(E13="Nee","NR",IF(ISNUMBER($M13),W13,IF($X13,"D","ND")))</f>
+        <v>+I</v>
+      </c>
+      <c r="Q13" s="31">
         <f t="shared" si="3"/>
-        <v>+I</v>
-      </c>
-      <c r="Q13" s="31">
+        <v>0.99999997739000002</v>
+      </c>
+      <c r="R13" s="10">
+        <f t="shared" si="5"/>
+        <v>0.99999997739000002</v>
+      </c>
+      <c r="S13" s="10">
         <f t="shared" si="4"/>
-        <v>0.99999997739000002</v>
-      </c>
-      <c r="R13" s="10">
+        <v>2.516E-7</v>
+      </c>
+      <c r="T13" s="10">
         <f t="shared" si="6"/>
-        <v>0.99999997739000002</v>
-      </c>
-      <c r="S13" s="10">
-        <f t="shared" si="5"/>
-        <v>2.516E-7</v>
-      </c>
-      <c r="T13" s="10">
-        <f t="shared" si="7"/>
         <v>2.516E-7</v>
       </c>
       <c r="U13" s="9">
@@ -4356,7 +4356,7 @@
         <v>+I</v>
       </c>
       <c r="X13" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4400,23 +4400,23 @@
         <v>1.3748800000000001</v>
       </c>
       <c r="O14" s="32" t="str">
+        <f>IF(E14="Nee","NR",IF(ISNUMBER($M14),W14,IF($X14,"D","ND")))</f>
+        <v>+I</v>
+      </c>
+      <c r="Q14" s="31">
         <f t="shared" si="3"/>
-        <v>+I</v>
-      </c>
-      <c r="Q14" s="31">
+        <v>0.99999997674503571</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" si="5"/>
+        <v>0.99999997674503571</v>
+      </c>
+      <c r="S14" s="10">
         <f t="shared" si="4"/>
-        <v>0.99999997674503571</v>
-      </c>
-      <c r="R14" s="10">
+        <v>2.5032982646053922E-7</v>
+      </c>
+      <c r="T14" s="10">
         <f t="shared" si="6"/>
-        <v>0.99999997674503571</v>
-      </c>
-      <c r="S14" s="10">
-        <f t="shared" si="5"/>
-        <v>2.5032982646053922E-7</v>
-      </c>
-      <c r="T14" s="10">
-        <f t="shared" si="7"/>
         <v>2.5032982646053922E-7</v>
       </c>
       <c r="U14" s="9">
@@ -4432,7 +4432,7 @@
         <v>+I</v>
       </c>
       <c r="X14" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4943,7 +4943,7 @@
   <dimension ref="B2:U73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="K11" sqref="K11:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5104,19 +5104,19 @@
         <v>1.1999999999999999E-7</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11:K14" si="1">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
+        <f>IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
         <v>-I</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" ref="M11" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>0.99999987999999995</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11" si="3">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11" si="2">IF(J11="-",1,M11)</f>
         <v>0.99999987999999995</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11" si="4">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f t="shared" ref="O11" si="3">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>2.3999999999999998E-7</v>
       </c>
       <c r="P11" s="10">
@@ -5170,23 +5170,23 @@
         <v>0</v>
       </c>
       <c r="K12" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>+III</v>
+        <f>IF($E12="Nee","NR",IF(ISNUMBER($J12),S12,IF($T12,"D","ND")))</f>
+        <v>NR</v>
       </c>
       <c r="M12" s="31">
-        <f t="shared" ref="M12:M14" si="5">IF(AND(F12="Geen faalkans",H12="Nee"),1,1-J12)</f>
+        <f t="shared" ref="M12:M14" si="4">IF(AND(F12="Geen faalkans",H12="Nee"),1,1-J12)</f>
         <v>1</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" ref="N12:N14" si="6">IF(J12="-",1,M12)</f>
+        <f t="shared" ref="N12:N14" si="5">IF(J12="-",1,M12)</f>
         <v>1</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" ref="O12:O14" si="7">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
+        <f t="shared" ref="O12:O14" si="6">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P14" si="8">IF(J12="-",0,O12)</f>
+        <f t="shared" ref="P12:P14" si="7">IF(J12="-",0,O12)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="9">
@@ -5202,7 +5202,7 @@
         <v>+III</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" ref="T12:T14" si="9">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
+        <f t="shared" ref="T12:T14" si="8">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -5234,23 +5234,23 @@
         <v>-</v>
       </c>
       <c r="K13" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($E13="Nee","NR",IF(ISNUMBER($J13),S13,IF($T13,"D","ND")))</f>
         <v>D</v>
       </c>
       <c r="M13" s="31" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N13" s="10">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="10" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N13" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O13" s="10" t="e">
+      <c r="P13" s="10">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P13" s="10">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q13" s="9">
@@ -5266,7 +5266,7 @@
         <v>+III</v>
       </c>
       <c r="T13" s="12" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5296,27 +5296,27 @@
         <v>3.9999999999999994E-9</v>
       </c>
       <c r="J14" s="10">
-        <f t="shared" ref="J14" si="10">IF($E14="Nee",0,IF(H14="Ja",IF(ISNUMBER(I14),I14,"-"),IF(ISNUMBER(G14),G14,"-")))</f>
+        <f t="shared" ref="J14" si="9">IF($E14="Nee",0,IF(H14="Ja",IF(ISNUMBER(I14),I14,"-"),IF(ISNUMBER(G14),G14,"-")))</f>
         <v>3.9999999999999994E-9</v>
       </c>
       <c r="K14" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($E14="Nee","NR",IF(ISNUMBER($J14),S14,IF($T14,"D","ND")))</f>
         <v>+II</v>
       </c>
       <c r="M14" s="31">
+        <f t="shared" si="4"/>
+        <v>0.999999996</v>
+      </c>
+      <c r="N14" s="10">
         <f t="shared" si="5"/>
         <v>0.999999996</v>
       </c>
-      <c r="N14" s="10">
+      <c r="O14" s="10">
         <f t="shared" si="6"/>
-        <v>0.999999996</v>
-      </c>
-      <c r="O14" s="10">
+        <v>7.9999999999999988E-9</v>
+      </c>
+      <c r="P14" s="10">
         <f t="shared" si="7"/>
-        <v>7.9999999999999988E-9</v>
-      </c>
-      <c r="P14" s="10">
-        <f t="shared" si="8"/>
         <v>7.9999999999999988E-9</v>
       </c>
       <c r="Q14" s="9">
@@ -5332,7 +5332,7 @@
         <v>+II</v>
       </c>
       <c r="T14" s="12" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6599,7 +6599,7 @@
   <dimension ref="B2:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6756,8 +6756,8 @@
         <v>0</v>
       </c>
       <c r="K11" s="47" t="str">
-        <f>IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
-        <v>+III</v>
+        <f>IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <v>NR</v>
       </c>
       <c r="M11" s="33">
         <f>IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
@@ -6921,7 +6921,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="K11" sqref="K11:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7078,7 +7078,7 @@
         <v>-</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11:K12" si="1">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
+        <f t="shared" ref="K11:K19" si="1">IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
         <v>D</v>
       </c>
       <c r="M11" s="31" t="e">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="K12" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M12" s="31">
         <f t="shared" si="2"/>
@@ -7206,19 +7206,19 @@
         <v>2.2222222222222221E-10</v>
       </c>
       <c r="K13" s="32" t="str">
-        <f t="shared" ref="K13:K19" si="7">IF(ISNUMBER($J13),S13,IF($T13,"D","ND"))</f>
+        <f t="shared" si="1"/>
         <v>+III</v>
       </c>
       <c r="M13" s="31">
-        <f t="shared" ref="M13:M19" si="8">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
+        <f t="shared" ref="M13:M19" si="7">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
         <v>0.99999999977777776</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" ref="N13:N19" si="9">IF(J13="-",1,M13)</f>
+        <f t="shared" ref="N13:N19" si="8">IF(J13="-",1,M13)</f>
         <v>0.99999999977777776</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" ref="O13:O19" si="10">IF(AND(F13="Geen faalkans",H13="Nee"),0,J13*$C$3)</f>
+        <f t="shared" ref="O13:O19" si="9">IF(AND(F13="Geen faalkans",H13="Nee"),0,J13*$C$3)</f>
         <v>6.6666666666666664E-10</v>
       </c>
       <c r="P13" s="10">
@@ -7268,23 +7268,23 @@
         <v>0</v>
       </c>
       <c r="K14" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M14" s="31">
         <f t="shared" si="7"/>
-        <v>+III</v>
-      </c>
-      <c r="M14" s="31">
+        <v>1</v>
+      </c>
+      <c r="N14" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N14" s="10">
+      <c r="O14" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="10">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" ref="P14:P19" si="11">IF(J14="-",0,O14)</f>
+        <f t="shared" ref="P14:P19" si="10">IF(J14="-",0,O14)</f>
         <v>0</v>
       </c>
       <c r="Q14" s="9">
@@ -7334,23 +7334,23 @@
         <v>2.2300000000000001E-10</v>
       </c>
       <c r="K15" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="M15" s="31">
         <f t="shared" si="7"/>
-        <v>+III</v>
-      </c>
-      <c r="M15" s="31">
+        <v>0.99999999977700005</v>
+      </c>
+      <c r="N15" s="10">
         <f t="shared" si="8"/>
         <v>0.99999999977700005</v>
       </c>
-      <c r="N15" s="10">
+      <c r="O15" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999999977700005</v>
-      </c>
-      <c r="O15" s="10">
+        <v>6.6900000000000007E-10</v>
+      </c>
+      <c r="P15" s="10">
         <f t="shared" si="10"/>
-        <v>6.6900000000000007E-10</v>
-      </c>
-      <c r="P15" s="10">
-        <f t="shared" si="11"/>
         <v>6.6900000000000007E-10</v>
       </c>
       <c r="Q15" s="9">
@@ -7396,23 +7396,23 @@
         <v>0</v>
       </c>
       <c r="K16" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M16" s="31">
         <f t="shared" si="7"/>
-        <v>+III</v>
-      </c>
-      <c r="M16" s="31">
+        <v>1</v>
+      </c>
+      <c r="N16" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N16" s="10">
+      <c r="O16" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="10">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="10">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q16" s="9">
@@ -7462,23 +7462,23 @@
         <v>6.6666666666666668E-9</v>
       </c>
       <c r="K17" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M17" s="31">
         <f t="shared" si="7"/>
-        <v>+II</v>
-      </c>
-      <c r="M17" s="31">
+        <v>0.99999999333333334</v>
+      </c>
+      <c r="N17" s="10">
         <f t="shared" si="8"/>
         <v>0.99999999333333334</v>
       </c>
-      <c r="N17" s="10">
+      <c r="O17" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999999333333334</v>
-      </c>
-      <c r="O17" s="10">
+        <v>2E-8</v>
+      </c>
+      <c r="P17" s="10">
         <f t="shared" si="10"/>
-        <v>2E-8</v>
-      </c>
-      <c r="P17" s="10">
-        <f t="shared" si="11"/>
         <v>2E-8</v>
       </c>
       <c r="Q17" s="9">
@@ -7524,23 +7524,23 @@
         <v>0</v>
       </c>
       <c r="K18" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M18" s="31">
         <f t="shared" si="7"/>
-        <v>+III</v>
-      </c>
-      <c r="M18" s="31">
+        <v>1</v>
+      </c>
+      <c r="N18" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N18" s="10">
+      <c r="O18" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="10">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q18" s="9">
@@ -7588,23 +7588,23 @@
         <v>0</v>
       </c>
       <c r="K19" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="M19" s="31">
         <f t="shared" si="7"/>
-        <v>+III</v>
-      </c>
-      <c r="M19" s="31">
+        <v>1</v>
+      </c>
+      <c r="N19" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N19" s="10">
+      <c r="O19" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="10">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="10">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q19" s="9">
@@ -7927,7 +7927,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="K11" sqref="K11:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8084,7 +8084,7 @@
         <v>-</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11:K19" si="1">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
+        <f t="shared" ref="K11:K19" si="1">IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
         <v>D</v>
       </c>
       <c r="M11" s="31" t="e">
@@ -8147,7 +8147,7 @@
       </c>
       <c r="K12" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M12" s="31">
         <f t="shared" si="2"/>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="K14" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M14" s="31">
         <f t="shared" si="2"/>
@@ -8399,7 +8399,7 @@
       </c>
       <c r="K16" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M16" s="31">
         <f t="shared" si="2"/>
@@ -8527,7 +8527,7 @@
       </c>
       <c r="K18" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M18" s="31">
         <f t="shared" si="2"/>
@@ -8931,7 +8931,7 @@
   <dimension ref="B2:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="K11" sqref="K11:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9090,7 +9090,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11:K12" si="1">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
+        <f t="shared" ref="K11:K19" si="1">IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
         <v>+III</v>
       </c>
       <c r="M11" s="31">
@@ -9153,7 +9153,7 @@
       </c>
       <c r="K12" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M12" s="31">
         <f t="shared" si="2"/>
@@ -9218,15 +9218,15 @@
         <v>4.0000000000000002E-9</v>
       </c>
       <c r="K13" s="32" t="str">
-        <f t="shared" ref="K13:K19" si="7">IF(ISNUMBER($J13),S13,IF($T13,"D","ND"))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="M13" s="31">
-        <f t="shared" ref="M13:M19" si="8">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
+        <f t="shared" ref="M13:M19" si="7">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
         <v>0.999999996</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" ref="N13:N19" si="9">IF(J13="-",1,M13)</f>
+        <f t="shared" ref="N13:N19" si="8">IF(J13="-",1,M13)</f>
         <v>0.999999996</v>
       </c>
       <c r="O13" s="10">
@@ -9280,23 +9280,23 @@
         <v>0</v>
       </c>
       <c r="K14" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M14" s="31">
         <f t="shared" si="7"/>
-        <v>+III</v>
-      </c>
-      <c r="M14" s="31">
+        <v>1</v>
+      </c>
+      <c r="N14" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N14" s="10">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
       <c r="O14" s="10">
-        <f t="shared" ref="O14:O19" si="10">IF(AND(F14="Geen faalkans",H14="Nee"),0,J14*$C$3)</f>
+        <f t="shared" ref="O14:O19" si="9">IF(AND(F14="Geen faalkans",H14="Nee"),0,J14*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" ref="P14:P19" si="11">IF(J14="-",0,O14)</f>
+        <f t="shared" ref="P14:P19" si="10">IF(J14="-",0,O14)</f>
         <v>0</v>
       </c>
       <c r="Q14" s="9">
@@ -9344,23 +9344,23 @@
         <v>-</v>
       </c>
       <c r="K15" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="M15" s="31" t="e">
         <f t="shared" si="7"/>
-        <v>D</v>
-      </c>
-      <c r="M15" s="31" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N15" s="10">
         <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="10" t="e">
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N15" s="10">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="10" t="e">
+      <c r="P15" s="10">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P15" s="10">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q15" s="9">
@@ -9406,23 +9406,23 @@
         <v>0</v>
       </c>
       <c r="K16" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M16" s="31">
         <f t="shared" si="7"/>
-        <v>+III</v>
-      </c>
-      <c r="M16" s="31">
+        <v>1</v>
+      </c>
+      <c r="N16" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N16" s="10">
+      <c r="O16" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="10">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="10">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q16" s="9">
@@ -9472,23 +9472,23 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="K17" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
+      </c>
+      <c r="M17" s="31">
         <f t="shared" si="7"/>
-        <v>+0</v>
-      </c>
-      <c r="M17" s="31">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="N17" s="10">
         <f t="shared" si="8"/>
         <v>0.99999899999999997</v>
       </c>
-      <c r="N17" s="10">
+      <c r="O17" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="O17" s="10">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="P17" s="10">
         <f t="shared" si="10"/>
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="P17" s="10">
-        <f t="shared" si="11"/>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="Q17" s="9">
@@ -9534,23 +9534,23 @@
         <v>0</v>
       </c>
       <c r="K18" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M18" s="31">
         <f t="shared" si="7"/>
-        <v>+III</v>
-      </c>
-      <c r="M18" s="31">
+        <v>1</v>
+      </c>
+      <c r="N18" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N18" s="10">
+      <c r="O18" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="10">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q18" s="9">
@@ -9596,23 +9596,23 @@
         <v>-</v>
       </c>
       <c r="K19" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="M19" s="31" t="e">
         <f t="shared" si="7"/>
-        <v>D</v>
-      </c>
-      <c r="M19" s="31" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N19" s="10">
         <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="10" t="e">
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N19" s="10">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="10" t="e">
+      <c r="P19" s="10">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P19" s="10">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q19" s="9">
